--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_2%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4552,28 +4552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.73704683284</v>
+        <v>238.3949836511628</v>
       </c>
       <c r="AB2" t="n">
-        <v>269.184306902511</v>
+        <v>326.1825338757773</v>
       </c>
       <c r="AC2" t="n">
-        <v>243.4937344543617</v>
+        <v>295.0521306428316</v>
       </c>
       <c r="AD2" t="n">
-        <v>196737.04683284</v>
+        <v>238394.9836511628</v>
       </c>
       <c r="AE2" t="n">
-        <v>269184.306902511</v>
+        <v>326182.5338757773</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.658953764861409e-06</v>
+        <v>4.495093266682878e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.619598765432098</v>
       </c>
       <c r="AH2" t="n">
-        <v>243493.7344543617</v>
+        <v>295052.1306428316</v>
       </c>
     </row>
     <row r="3">
@@ -4658,28 +4658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.6612346813302</v>
+        <v>163.9046872950722</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.5129538915344</v>
+        <v>224.2616241214842</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.1896123272081</v>
+        <v>202.8584094685605</v>
       </c>
       <c r="AD3" t="n">
-        <v>132661.2346813302</v>
+        <v>163904.6872950722</v>
       </c>
       <c r="AE3" t="n">
-        <v>181512.9538915344</v>
+        <v>224261.6241214842</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.553919715344398e-06</v>
+        <v>6.008077610784934e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.702160493827161</v>
       </c>
       <c r="AH3" t="n">
-        <v>164189.6123272081</v>
+        <v>202858.4094685605</v>
       </c>
     </row>
     <row r="4">
@@ -4764,28 +4764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.6467356434813</v>
+        <v>142.4757935611937</v>
       </c>
       <c r="AB4" t="n">
-        <v>166.4424303825546</v>
+        <v>194.9416663387361</v>
       </c>
       <c r="AC4" t="n">
-        <v>150.5573984303079</v>
+        <v>176.3367073057694</v>
       </c>
       <c r="AD4" t="n">
-        <v>121646.7356434814</v>
+        <v>142475.7935611937</v>
       </c>
       <c r="AE4" t="n">
-        <v>166442.4303825546</v>
+        <v>194941.6663387361</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.932419780195692e-06</v>
+        <v>6.647950750151373e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.15432098765432</v>
       </c>
       <c r="AH4" t="n">
-        <v>150557.3984303079</v>
+        <v>176336.7073057694</v>
       </c>
     </row>
     <row r="5">
@@ -4870,28 +4870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>107.3248076336716</v>
+        <v>138.482919392842</v>
       </c>
       <c r="AB5" t="n">
-        <v>146.8465366406718</v>
+        <v>189.4784397484239</v>
       </c>
       <c r="AC5" t="n">
-        <v>132.8317092841345</v>
+        <v>171.3948833935482</v>
       </c>
       <c r="AD5" t="n">
-        <v>107324.8076336716</v>
+        <v>138482.919392842</v>
       </c>
       <c r="AE5" t="n">
-        <v>146846.5366406718</v>
+        <v>189478.4397484239</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.088189336508851e-06</v>
+        <v>6.911286913792397e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.957561728395062</v>
       </c>
       <c r="AH5" t="n">
-        <v>132831.7092841346</v>
+        <v>171394.8833935482</v>
       </c>
     </row>
     <row r="6">
@@ -4976,28 +4976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>103.5652298567566</v>
+        <v>134.723341615927</v>
       </c>
       <c r="AB6" t="n">
-        <v>141.7025164654337</v>
+        <v>184.3344195731858</v>
       </c>
       <c r="AC6" t="n">
-        <v>128.1786271747418</v>
+        <v>166.7418012841555</v>
       </c>
       <c r="AD6" t="n">
-        <v>103565.2298567566</v>
+        <v>134723.341615927</v>
       </c>
       <c r="AE6" t="n">
-        <v>141702.5164654337</v>
+        <v>184334.4195731858</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.233927879586739e-06</v>
+        <v>7.157665151858426e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.783950617283951</v>
       </c>
       <c r="AH6" t="n">
-        <v>128178.6271747419</v>
+        <v>166741.8012841555</v>
       </c>
     </row>
     <row r="7">
@@ -5082,28 +5082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>102.6442583844105</v>
+        <v>133.802370143581</v>
       </c>
       <c r="AB7" t="n">
-        <v>140.4424026665766</v>
+        <v>183.0743057743288</v>
       </c>
       <c r="AC7" t="n">
-        <v>127.0387768682665</v>
+        <v>165.6019509776802</v>
       </c>
       <c r="AD7" t="n">
-        <v>102644.2583844106</v>
+        <v>133802.370143581</v>
       </c>
       <c r="AE7" t="n">
-        <v>140442.4026665766</v>
+        <v>183074.3057743288</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.273841858952215e-06</v>
+        <v>7.22514171435579e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.741512345679012</v>
       </c>
       <c r="AH7" t="n">
-        <v>127038.7768682665</v>
+        <v>165601.9509776802</v>
       </c>
     </row>
     <row r="8">
@@ -5188,28 +5188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>100.9311549467719</v>
+        <v>132.0892667059423</v>
       </c>
       <c r="AB8" t="n">
-        <v>138.0984589664109</v>
+        <v>180.730362074163</v>
       </c>
       <c r="AC8" t="n">
-        <v>124.9185358650981</v>
+        <v>163.4817099745118</v>
       </c>
       <c r="AD8" t="n">
-        <v>100931.1549467719</v>
+        <v>132089.2667059423</v>
       </c>
       <c r="AE8" t="n">
-        <v>138098.4589664109</v>
+        <v>180730.362074163</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.342378362994249e-06</v>
+        <v>7.341006074959815e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.664351851851851</v>
       </c>
       <c r="AH8" t="n">
-        <v>124918.5358650982</v>
+        <v>163481.7099745118</v>
       </c>
     </row>
     <row r="9">
@@ -5294,28 +5294,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>99.02850364878628</v>
+        <v>119.9428129125193</v>
       </c>
       <c r="AB9" t="n">
-        <v>135.4951675214571</v>
+        <v>164.1110481302879</v>
       </c>
       <c r="AC9" t="n">
-        <v>122.5636989019075</v>
+        <v>148.4485200280812</v>
       </c>
       <c r="AD9" t="n">
-        <v>99028.50364878628</v>
+        <v>119942.8129125193</v>
       </c>
       <c r="AE9" t="n">
-        <v>135495.1675214571</v>
+        <v>164111.0481302879</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.410442201491166e-06</v>
+        <v>7.456071371007949e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.594907407407408</v>
       </c>
       <c r="AH9" t="n">
-        <v>122563.6989019075</v>
+        <v>148448.5200280813</v>
       </c>
     </row>
     <row r="10">
@@ -5400,28 +5400,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>98.56245505980286</v>
+        <v>119.4767643235359</v>
       </c>
       <c r="AB10" t="n">
-        <v>134.8574992813977</v>
+        <v>163.4733798902284</v>
       </c>
       <c r="AC10" t="n">
-        <v>121.9868888237061</v>
+        <v>147.8717099498799</v>
       </c>
       <c r="AD10" t="n">
-        <v>98562.45505980286</v>
+        <v>119476.7643235359</v>
       </c>
       <c r="AE10" t="n">
-        <v>134857.4992813977</v>
+        <v>163473.3798902284</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.425199870177612e-06</v>
+        <v>7.481019942141843e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.579475308641975</v>
       </c>
       <c r="AH10" t="n">
-        <v>121986.8888237061</v>
+        <v>147871.7099498799</v>
       </c>
     </row>
     <row r="11">
@@ -5506,28 +5506,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>97.57327052246954</v>
+        <v>118.4875797862025</v>
       </c>
       <c r="AB11" t="n">
-        <v>133.5040533576771</v>
+        <v>162.1199339665079</v>
       </c>
       <c r="AC11" t="n">
-        <v>120.7626138793717</v>
+        <v>146.6474350055454</v>
       </c>
       <c r="AD11" t="n">
-        <v>97573.27052246954</v>
+        <v>118487.5797862025</v>
       </c>
       <c r="AE11" t="n">
-        <v>133504.0533576771</v>
+        <v>162119.9339665078</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.448097889918858e-06</v>
+        <v>7.519730180627171e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.556327160493828</v>
       </c>
       <c r="AH11" t="n">
-        <v>120762.6138793717</v>
+        <v>146647.4350055454</v>
       </c>
     </row>
     <row r="12">
@@ -5612,28 +5612,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>96.80587045321292</v>
+        <v>117.7201797169459</v>
       </c>
       <c r="AB12" t="n">
-        <v>132.454062727619</v>
+        <v>161.0699433364498</v>
       </c>
       <c r="AC12" t="n">
-        <v>119.8128328813749</v>
+        <v>145.6976540075487</v>
       </c>
       <c r="AD12" t="n">
-        <v>96805.87045321292</v>
+        <v>117720.1797169459</v>
       </c>
       <c r="AE12" t="n">
-        <v>132454.062727619</v>
+        <v>161069.9433364498</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.468475026752812e-06</v>
+        <v>7.554178741481089e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.53317901234568</v>
       </c>
       <c r="AH12" t="n">
-        <v>119812.8328813749</v>
+        <v>145697.6540075487</v>
       </c>
     </row>
     <row r="13">
@@ -5718,28 +5718,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>96.24095660202386</v>
+        <v>117.1552658657569</v>
       </c>
       <c r="AB13" t="n">
-        <v>131.6811226741823</v>
+        <v>160.2970032830131</v>
       </c>
       <c r="AC13" t="n">
-        <v>119.1136611418098</v>
+        <v>144.9984822679836</v>
       </c>
       <c r="AD13" t="n">
-        <v>96240.95660202386</v>
+        <v>117155.2658657569</v>
       </c>
       <c r="AE13" t="n">
-        <v>131681.1226741823</v>
+        <v>160297.0032830131</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.462382893060187e-06</v>
+        <v>7.543879687205176e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.540895061728396</v>
       </c>
       <c r="AH13" t="n">
-        <v>119113.6611418098</v>
+        <v>144998.4822679836</v>
       </c>
     </row>
     <row r="14">
@@ -5824,28 +5824,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>95.34191401649181</v>
+        <v>116.2562232802248</v>
       </c>
       <c r="AB14" t="n">
-        <v>130.4510129456984</v>
+        <v>159.0668935545292</v>
       </c>
       <c r="AC14" t="n">
-        <v>118.0009513593421</v>
+        <v>143.8857724855159</v>
       </c>
       <c r="AD14" t="n">
-        <v>95341.91401649181</v>
+        <v>116256.2232802248</v>
       </c>
       <c r="AE14" t="n">
-        <v>130451.0129456984</v>
+        <v>159066.8935545292</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.486278762285569e-06</v>
+        <v>7.584276839752939e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.517746913580248</v>
       </c>
       <c r="AH14" t="n">
-        <v>118000.9513593421</v>
+        <v>143885.7724855159</v>
       </c>
     </row>
     <row r="15">
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>93.71423158769431</v>
+        <v>114.4579486508351</v>
       </c>
       <c r="AB15" t="n">
-        <v>128.223946038338</v>
+        <v>156.6064148723219</v>
       </c>
       <c r="AC15" t="n">
-        <v>115.9864325919115</v>
+        <v>141.6601184354342</v>
       </c>
       <c r="AD15" t="n">
-        <v>93714.23158769432</v>
+        <v>114457.9486508351</v>
       </c>
       <c r="AE15" t="n">
-        <v>128223.946038338</v>
+        <v>156606.4148723219</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.530026584405888e-06</v>
+        <v>7.658234703648074e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.471450617283951</v>
       </c>
       <c r="AH15" t="n">
-        <v>115986.4325919115</v>
+        <v>141660.1184354342</v>
       </c>
     </row>
     <row r="16">
@@ -6036,28 +6036,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>93.82968994947711</v>
+        <v>114.5734070126179</v>
       </c>
       <c r="AB16" t="n">
-        <v>128.3819212625926</v>
+        <v>156.7643900965765</v>
       </c>
       <c r="AC16" t="n">
-        <v>116.1293308824829</v>
+        <v>141.8030167260056</v>
       </c>
       <c r="AD16" t="n">
-        <v>93829.68994947712</v>
+        <v>114573.4070126179</v>
       </c>
       <c r="AE16" t="n">
-        <v>128381.9212625926</v>
+        <v>156764.3900965765</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.530289176375397e-06</v>
+        <v>7.658678628401348e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.471450617283951</v>
       </c>
       <c r="AH16" t="n">
-        <v>116129.3308824829</v>
+        <v>141803.0167260056</v>
       </c>
     </row>
     <row r="17">
@@ -6142,28 +6142,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>93.8729828581764</v>
+        <v>114.6166999213172</v>
       </c>
       <c r="AB17" t="n">
-        <v>128.4411565302233</v>
+        <v>156.8236253642072</v>
       </c>
       <c r="AC17" t="n">
-        <v>116.1829128193081</v>
+        <v>141.8565986628309</v>
       </c>
       <c r="AD17" t="n">
-        <v>93872.9828581764</v>
+        <v>114616.6999213172</v>
       </c>
       <c r="AE17" t="n">
-        <v>128441.1565302233</v>
+        <v>156823.6253642072</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.528556069376633e-06</v>
+        <v>7.65574872502975e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>5</v>
+        <v>4.475308641975309</v>
       </c>
       <c r="AH17" t="n">
-        <v>116182.9128193081</v>
+        <v>141856.5986628309</v>
       </c>
     </row>
   </sheetData>
@@ -6439,28 +6439,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>154.3632021992117</v>
+        <v>194.6401327200801</v>
       </c>
       <c r="AB2" t="n">
-        <v>211.2065432727204</v>
+        <v>266.3152165041126</v>
       </c>
       <c r="AC2" t="n">
-        <v>191.0492872130775</v>
+        <v>240.8984660167918</v>
       </c>
       <c r="AD2" t="n">
-        <v>154363.2021992117</v>
+        <v>194640.1327200801</v>
       </c>
       <c r="AE2" t="n">
-        <v>211206.5432727204</v>
+        <v>266315.2165041126</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.134108388338162e-06</v>
+        <v>5.427620723401363e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.689814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>191049.2872130775</v>
+        <v>240898.4660167918</v>
       </c>
     </row>
     <row r="3">
@@ -6545,28 +6545,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.2365627140048</v>
+        <v>147.3376740449926</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.4082372173497</v>
+        <v>201.5939057076953</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.099100191745</v>
+        <v>182.3540662858338</v>
       </c>
       <c r="AD3" t="n">
-        <v>117236.5627140048</v>
+        <v>147337.6740449926</v>
       </c>
       <c r="AE3" t="n">
-        <v>160408.2372173497</v>
+        <v>201593.9057076953</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.950138134950729e-06</v>
+        <v>6.840813700423715e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.304783950617284</v>
       </c>
       <c r="AH3" t="n">
-        <v>145099.100191745</v>
+        <v>182354.0662858338</v>
       </c>
     </row>
     <row r="4">
@@ -6651,28 +6651,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>98.12747297909033</v>
+        <v>128.3138356560987</v>
       </c>
       <c r="AB4" t="n">
-        <v>134.262337608512</v>
+        <v>175.5646507515068</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.4485285455659</v>
+        <v>158.8090068903669</v>
       </c>
       <c r="AD4" t="n">
-        <v>98127.47297909032</v>
+        <v>128313.8356560987</v>
       </c>
       <c r="AE4" t="n">
-        <v>134262.3376085121</v>
+        <v>175564.6507515068</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.335171611265194e-06</v>
+        <v>7.507611212285061e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.834104938271604</v>
       </c>
       <c r="AH4" t="n">
-        <v>121448.5285455659</v>
+        <v>158809.0068903669</v>
       </c>
     </row>
     <row r="5">
@@ -6757,28 +6757,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>95.93690495878097</v>
+        <v>126.1232676357893</v>
       </c>
       <c r="AB5" t="n">
-        <v>131.2651058020858</v>
+        <v>172.5674189450806</v>
       </c>
       <c r="AC5" t="n">
-        <v>118.7373483361027</v>
+        <v>156.0978266809038</v>
       </c>
       <c r="AD5" t="n">
-        <v>95936.90495878097</v>
+        <v>126123.2676357894</v>
       </c>
       <c r="AE5" t="n">
-        <v>131265.1058020858</v>
+        <v>172567.4189450806</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.446275528164176e-06</v>
+        <v>7.700019976466866e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.714506172839506</v>
       </c>
       <c r="AH5" t="n">
-        <v>118737.3483361027</v>
+        <v>156097.8266809038</v>
       </c>
     </row>
     <row r="6">
@@ -6863,28 +6863,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>94.04345460078592</v>
+        <v>124.2298172777943</v>
       </c>
       <c r="AB6" t="n">
-        <v>128.674403489144</v>
+        <v>169.9767166321388</v>
       </c>
       <c r="AC6" t="n">
-        <v>116.3938990158337</v>
+        <v>153.7543773606348</v>
       </c>
       <c r="AD6" t="n">
-        <v>94043.45460078592</v>
+        <v>124229.8172777943</v>
       </c>
       <c r="AE6" t="n">
-        <v>128674.403489144</v>
+        <v>169976.7166321388</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.529019423243466e-06</v>
+        <v>7.843315109889305e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.62962962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>116393.8990158337</v>
+        <v>153754.3773606348</v>
       </c>
     </row>
     <row r="7">
@@ -6969,28 +6969,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>92.32008105913737</v>
+        <v>112.586557601429</v>
       </c>
       <c r="AB7" t="n">
-        <v>126.3164077795869</v>
+        <v>154.0458950785794</v>
       </c>
       <c r="AC7" t="n">
-        <v>114.2609471073282</v>
+        <v>139.3439710570936</v>
       </c>
       <c r="AD7" t="n">
-        <v>92320.08105913736</v>
+        <v>112586.557601429</v>
       </c>
       <c r="AE7" t="n">
-        <v>126316.4077795869</v>
+        <v>154045.8950785794</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.598995875549524e-06</v>
+        <v>7.964499700728506e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.556327160493828</v>
       </c>
       <c r="AH7" t="n">
-        <v>114260.9471073282</v>
+        <v>139343.9710570936</v>
       </c>
     </row>
     <row r="8">
@@ -7075,28 +7075,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>90.97806108851411</v>
+        <v>111.2445376308057</v>
       </c>
       <c r="AB8" t="n">
-        <v>124.4801968500385</v>
+        <v>152.209684149031</v>
       </c>
       <c r="AC8" t="n">
-        <v>112.5999815717571</v>
+        <v>137.6830055215225</v>
       </c>
       <c r="AD8" t="n">
-        <v>90978.06108851411</v>
+        <v>111244.5376308057</v>
       </c>
       <c r="AE8" t="n">
-        <v>124480.1968500385</v>
+        <v>152209.684149031</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.644524033183434e-06</v>
+        <v>8.043344954706185e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.513888888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>112599.9815717571</v>
+        <v>137683.0055215225</v>
       </c>
     </row>
     <row r="9">
@@ -7181,28 +7181,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>90.33491455540768</v>
+        <v>110.6013910976993</v>
       </c>
       <c r="AB9" t="n">
-        <v>123.6002153898201</v>
+        <v>151.3297026888127</v>
       </c>
       <c r="AC9" t="n">
-        <v>111.80398430704</v>
+        <v>136.8870082568054</v>
       </c>
       <c r="AD9" t="n">
-        <v>90334.91455540768</v>
+        <v>110601.3910976993</v>
       </c>
       <c r="AE9" t="n">
-        <v>123600.2153898202</v>
+        <v>151329.7026888127</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.649522351205295e-06</v>
+        <v>8.052000996908983e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.506172839506173</v>
       </c>
       <c r="AH9" t="n">
-        <v>111803.98430704</v>
+        <v>136887.0082568054</v>
       </c>
     </row>
     <row r="10">
@@ -7287,28 +7287,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>89.10186619393089</v>
+        <v>109.1977505356303</v>
       </c>
       <c r="AB10" t="n">
-        <v>121.913104223394</v>
+        <v>149.4091797475397</v>
       </c>
       <c r="AC10" t="n">
-        <v>110.2778886624616</v>
+        <v>135.149777329576</v>
       </c>
       <c r="AD10" t="n">
-        <v>89101.86619393089</v>
+        <v>109197.7505356303</v>
       </c>
       <c r="AE10" t="n">
-        <v>121913.104223394</v>
+        <v>149409.1797475397</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.683804293290018e-06</v>
+        <v>8.111370155930364e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.475308641975309</v>
       </c>
       <c r="AH10" t="n">
-        <v>110277.8886624616</v>
+        <v>135149.777329576</v>
       </c>
     </row>
     <row r="11">
@@ -7393,28 +7393,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>87.46699488158252</v>
+        <v>107.562879223282</v>
       </c>
       <c r="AB11" t="n">
-        <v>119.6762011684082</v>
+        <v>147.1722766925538</v>
       </c>
       <c r="AC11" t="n">
-        <v>108.2544724955297</v>
+        <v>133.1263611626441</v>
       </c>
       <c r="AD11" t="n">
-        <v>87466.99488158252</v>
+        <v>107562.879223282</v>
       </c>
       <c r="AE11" t="n">
-        <v>119676.2011684082</v>
+        <v>147172.2766925538</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.71781458765616e-06</v>
+        <v>8.170268877875502e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>108254.4724955297</v>
+        <v>133126.3611626441</v>
       </c>
     </row>
     <row r="12">
@@ -7499,28 +7499,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>86.78086316610352</v>
+        <v>106.8767475078029</v>
       </c>
       <c r="AB12" t="n">
-        <v>118.7374054852953</v>
+        <v>146.233481009441</v>
       </c>
       <c r="AC12" t="n">
-        <v>107.4052741548049</v>
+        <v>132.2771628219192</v>
       </c>
       <c r="AD12" t="n">
-        <v>86780.86316610352</v>
+        <v>106876.7475078029</v>
       </c>
       <c r="AE12" t="n">
-        <v>118737.4054852953</v>
+        <v>146233.481009441</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.756714540956733e-06</v>
+        <v>8.237635467192946e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.405864197530864</v>
       </c>
       <c r="AH12" t="n">
-        <v>107405.2741548049</v>
+        <v>132277.1628219192</v>
       </c>
     </row>
   </sheetData>
@@ -7796,28 +7796,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>81.12125821537956</v>
+        <v>108.3820141989537</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.99368430757</v>
+        <v>148.293053303952</v>
       </c>
       <c r="AC2" t="n">
-        <v>100.4006028578983</v>
+        <v>134.1401724272706</v>
       </c>
       <c r="AD2" t="n">
-        <v>81121.25821537955</v>
+        <v>108382.0141989537</v>
       </c>
       <c r="AE2" t="n">
-        <v>110993.68430757</v>
+        <v>148293.053303952</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.695257037784212e-06</v>
+        <v>8.884436686532883e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.980709876543211</v>
       </c>
       <c r="AH2" t="n">
-        <v>100400.6028578983</v>
+        <v>134140.1724272706</v>
       </c>
     </row>
     <row r="3">
@@ -7902,28 +7902,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.84364963451048</v>
+        <v>93.15972171451259</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.4043832986847</v>
+        <v>127.4652411666021</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.63105268213863</v>
+        <v>115.3001374482848</v>
       </c>
       <c r="AD3" t="n">
-        <v>74843.64963451048</v>
+        <v>93159.72171451259</v>
       </c>
       <c r="AE3" t="n">
-        <v>102404.3832986848</v>
+        <v>127465.2411666021</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.149632839901639e-06</v>
+        <v>9.744213481140482e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.540895061728396</v>
       </c>
       <c r="AH3" t="n">
-        <v>92631.05268213863</v>
+        <v>115300.1374482848</v>
       </c>
     </row>
     <row r="4">
@@ -8008,28 +8008,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>71.25110471111428</v>
+        <v>89.39658459052417</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.48890484260032</v>
+        <v>122.3163509356708</v>
       </c>
       <c r="AC4" t="n">
-        <v>88.18470059098398</v>
+        <v>110.6426500744791</v>
       </c>
       <c r="AD4" t="n">
-        <v>71251.10471111428</v>
+        <v>89396.58459052417</v>
       </c>
       <c r="AE4" t="n">
-        <v>97488.90484260031</v>
+        <v>122316.3509356708</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.380670355828193e-06</v>
+        <v>1.018138617817178e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.347993827160494</v>
       </c>
       <c r="AH4" t="n">
-        <v>88184.70059098398</v>
+        <v>110642.6500744792</v>
       </c>
     </row>
     <row r="5">
@@ -8114,28 +8114,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>71.13024762735122</v>
+        <v>89.27572750676113</v>
       </c>
       <c r="AB5" t="n">
-        <v>97.32354284875757</v>
+        <v>122.150988941828</v>
       </c>
       <c r="AC5" t="n">
-        <v>88.03512051374652</v>
+        <v>110.4930699972417</v>
       </c>
       <c r="AD5" t="n">
-        <v>71130.24762735123</v>
+        <v>89275.72750676113</v>
       </c>
       <c r="AE5" t="n">
-        <v>97323.54284875757</v>
+        <v>122150.988941828</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.382913438507091e-06</v>
+        <v>1.018563057328859e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.344135802469136</v>
       </c>
       <c r="AH5" t="n">
-        <v>88035.12051374651</v>
+        <v>110493.0699972417</v>
       </c>
     </row>
   </sheetData>
@@ -8411,28 +8411,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.6303157740285</v>
+        <v>136.1202081109454</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.2645463563759</v>
+        <v>186.2456739370695</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.2098247392522</v>
+        <v>168.4706482140131</v>
       </c>
       <c r="AD2" t="n">
-        <v>107630.3157740285</v>
+        <v>136120.2081109454</v>
       </c>
       <c r="AE2" t="n">
-        <v>147264.5463563759</v>
+        <v>186245.6739370695</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.023942266967699e-06</v>
+        <v>7.330748911638289e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.559413580246914</v>
       </c>
       <c r="AH2" t="n">
-        <v>133209.8247392522</v>
+        <v>168470.6482140131</v>
       </c>
     </row>
     <row r="3">
@@ -8517,28 +8517,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.49349304193261</v>
+        <v>113.898044524278</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.975968886644</v>
+        <v>155.8403293451401</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.8119465929365</v>
+        <v>140.9671470357586</v>
       </c>
       <c r="AD3" t="n">
-        <v>85493.49304193261</v>
+        <v>113898.044524278</v>
       </c>
       <c r="AE3" t="n">
-        <v>116975.968886644</v>
+        <v>155840.3293451401</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.698968412729381e-06</v>
+        <v>8.560499950561327e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.760802469135802</v>
       </c>
       <c r="AH3" t="n">
-        <v>105811.9465929365</v>
+        <v>140967.1470357586</v>
       </c>
     </row>
     <row r="4">
@@ -8623,28 +8623,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.46330522261161</v>
+        <v>100.5419076351279</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.4616881129137</v>
+        <v>137.5658736222404</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.8239410369076</v>
+        <v>124.436779718687</v>
       </c>
       <c r="AD4" t="n">
-        <v>81463.30522261161</v>
+        <v>100541.9076351279</v>
       </c>
       <c r="AE4" t="n">
-        <v>111461.6881129137</v>
+        <v>137565.8736222404</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.943251437555244e-06</v>
+        <v>9.005530569681854e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.525462962962964</v>
       </c>
       <c r="AH4" t="n">
-        <v>100823.9410369076</v>
+        <v>124436.779718687</v>
       </c>
     </row>
     <row r="5">
@@ -8729,28 +8729,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>78.586257828767</v>
+        <v>97.49426804069108</v>
       </c>
       <c r="AB5" t="n">
-        <v>107.5251849422845</v>
+        <v>133.3959586767643</v>
       </c>
       <c r="AC5" t="n">
-        <v>97.26313220396504</v>
+        <v>120.6648356030934</v>
       </c>
       <c r="AD5" t="n">
-        <v>78586.257828767</v>
+        <v>97494.26804069108</v>
       </c>
       <c r="AE5" t="n">
-        <v>107525.1849422845</v>
+        <v>133395.9586767643</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.097755231034848e-06</v>
+        <v>9.287002927074323e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.390432098765433</v>
       </c>
       <c r="AH5" t="n">
-        <v>97263.13220396504</v>
+        <v>120664.8356030934</v>
       </c>
     </row>
     <row r="6">
@@ -8835,28 +8835,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>77.15525596564514</v>
+        <v>96.06326617756919</v>
       </c>
       <c r="AB6" t="n">
-        <v>105.5672250618155</v>
+        <v>131.4379987962953</v>
       </c>
       <c r="AC6" t="n">
-        <v>95.49203726647345</v>
+        <v>118.8937406656018</v>
       </c>
       <c r="AD6" t="n">
-        <v>77155.25596564513</v>
+        <v>96063.2661775692</v>
       </c>
       <c r="AE6" t="n">
-        <v>105567.2250618155</v>
+        <v>131437.9987962953</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.132727373477867e-06</v>
+        <v>9.350714575538161e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.359567901234568</v>
       </c>
       <c r="AH6" t="n">
-        <v>95492.03726647345</v>
+        <v>118893.7406656018</v>
       </c>
     </row>
     <row r="7">
@@ -8941,28 +8941,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>76.6180298831937</v>
+        <v>95.52604009511779</v>
       </c>
       <c r="AB7" t="n">
-        <v>104.8321686350638</v>
+        <v>130.7029423695436</v>
       </c>
       <c r="AC7" t="n">
-        <v>94.82713359343252</v>
+        <v>118.2288369925609</v>
       </c>
       <c r="AD7" t="n">
-        <v>76618.0298831937</v>
+        <v>95526.04009511779</v>
       </c>
       <c r="AE7" t="n">
-        <v>104832.1686350637</v>
+        <v>130702.9423695436</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.162943768523991e-06</v>
+        <v>9.405762285073252e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.332561728395062</v>
       </c>
       <c r="AH7" t="n">
-        <v>94827.13359343252</v>
+        <v>118228.8369925609</v>
       </c>
     </row>
   </sheetData>
@@ -9238,28 +9238,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.44734153519114</v>
+        <v>98.76995058182112</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.12564883954552</v>
+        <v>135.1414038086793</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.66523603804588</v>
+        <v>122.2436979013666</v>
       </c>
       <c r="AD2" t="n">
-        <v>72447.34153519114</v>
+        <v>98769.95058182112</v>
       </c>
       <c r="AE2" t="n">
-        <v>99125.64883954552</v>
+        <v>135141.4038086793</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.065497320292755e-06</v>
+        <v>9.926742642168223e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.795524691358025</v>
       </c>
       <c r="AH2" t="n">
-        <v>89665.23603804587</v>
+        <v>122243.6979013666</v>
       </c>
     </row>
     <row r="3">
@@ -9344,28 +9344,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.50902523592046</v>
+        <v>84.02907382403428</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.00058249886196</v>
+        <v>114.9722859071003</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.31561462531234</v>
+        <v>103.9994923047731</v>
       </c>
       <c r="AD3" t="n">
-        <v>66509.02523592046</v>
+        <v>84029.07382403429</v>
       </c>
       <c r="AE3" t="n">
-        <v>91000.58249886196</v>
+        <v>114972.2859071003</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.547290010280327e-06</v>
+        <v>1.087090108071383e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.378858024691358</v>
       </c>
       <c r="AH3" t="n">
-        <v>82315.61462531233</v>
+        <v>103999.4923047731</v>
       </c>
     </row>
     <row r="4">
@@ -9450,28 +9450,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.47613831850846</v>
+        <v>83.99618690662228</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.95558516759047</v>
+        <v>114.9272885758288</v>
       </c>
       <c r="AC4" t="n">
-        <v>82.27491177618323</v>
+        <v>103.958789455644</v>
       </c>
       <c r="AD4" t="n">
-        <v>66476.13831850846</v>
+        <v>83996.18690662229</v>
       </c>
       <c r="AE4" t="n">
-        <v>90955.58516759047</v>
+        <v>114927.2885758288</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.573608534119168e-06</v>
+        <v>1.092247690759727e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.359567901234568</v>
       </c>
       <c r="AH4" t="n">
-        <v>82274.91177618323</v>
+        <v>103958.789455644</v>
       </c>
     </row>
   </sheetData>
@@ -9747,28 +9747,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.1724928765384</v>
+        <v>202.7899779820305</v>
       </c>
       <c r="AB2" t="n">
-        <v>221.8915592990229</v>
+        <v>277.4661943373051</v>
       </c>
       <c r="AC2" t="n">
-        <v>200.7145403063473</v>
+        <v>250.9852101760837</v>
       </c>
       <c r="AD2" t="n">
-        <v>162172.4928765384</v>
+        <v>202789.9779820305</v>
       </c>
       <c r="AE2" t="n">
-        <v>221891.5592990229</v>
+        <v>277466.1943373051</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.998594955943006e-06</v>
+        <v>5.15902626997246e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.929012345679013</v>
       </c>
       <c r="AH2" t="n">
-        <v>200714.5403063473</v>
+        <v>250985.2101760837</v>
       </c>
     </row>
     <row r="3">
@@ -9853,28 +9853,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.372847559649</v>
+        <v>151.7293748291047</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.0676846231659</v>
+        <v>207.6028244686789</v>
       </c>
       <c r="AC3" t="n">
-        <v>150.2184178802362</v>
+        <v>187.7895022738415</v>
       </c>
       <c r="AD3" t="n">
-        <v>121372.847559649</v>
+        <v>151729.3748291047</v>
       </c>
       <c r="AE3" t="n">
-        <v>166067.6846231659</v>
+        <v>207602.8244686789</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.834538167584883e-06</v>
+        <v>6.597250855963381e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>150218.4178802362</v>
+        <v>187789.5022738415</v>
       </c>
     </row>
     <row r="4">
@@ -9959,28 +9959,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.8451046429634</v>
+        <v>132.2868832584397</v>
       </c>
       <c r="AB4" t="n">
-        <v>139.3489652613545</v>
+        <v>181.0007497595167</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.0496955943493</v>
+        <v>163.726292238667</v>
       </c>
       <c r="AD4" t="n">
-        <v>101845.1046429634</v>
+        <v>132286.8832584397</v>
       </c>
       <c r="AE4" t="n">
-        <v>139348.9652613545</v>
+        <v>181000.7497595167</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.203083271519487e-06</v>
+        <v>7.231325781321352e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.94212962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>126049.6955943493</v>
+        <v>163726.292238667</v>
       </c>
     </row>
     <row r="5">
@@ -10065,28 +10065,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>98.72610467102722</v>
+        <v>129.1678832865034</v>
       </c>
       <c r="AB5" t="n">
-        <v>135.081411899186</v>
+        <v>176.7331963973483</v>
       </c>
       <c r="AC5" t="n">
-        <v>122.1894315355161</v>
+        <v>159.8660281798338</v>
       </c>
       <c r="AD5" t="n">
-        <v>98726.10467102722</v>
+        <v>129167.8832865034</v>
       </c>
       <c r="AE5" t="n">
-        <v>135081.411899186</v>
+        <v>176733.1963973482</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.351793509221075e-06</v>
+        <v>7.487178950618462e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.772376543209877</v>
       </c>
       <c r="AH5" t="n">
-        <v>122189.4315355161</v>
+        <v>159866.0281798338</v>
       </c>
     </row>
     <row r="6">
@@ -10171,28 +10171,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>96.79990862622638</v>
+        <v>127.2416872417026</v>
       </c>
       <c r="AB6" t="n">
-        <v>132.4459054929188</v>
+        <v>174.097689991081</v>
       </c>
       <c r="AC6" t="n">
-        <v>119.8054541617057</v>
+        <v>157.4820508060234</v>
       </c>
       <c r="AD6" t="n">
-        <v>96799.90862622639</v>
+        <v>127241.6872417026</v>
       </c>
       <c r="AE6" t="n">
-        <v>132445.9054929188</v>
+        <v>174097.689991081</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.434870951934165e-06</v>
+        <v>7.630112129555986e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.683641975308642</v>
       </c>
       <c r="AH6" t="n">
-        <v>119805.4541617057</v>
+        <v>157482.0508060234</v>
       </c>
     </row>
     <row r="7">
@@ -10277,28 +10277,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>95.54697282016956</v>
+        <v>125.9887514356458</v>
       </c>
       <c r="AB7" t="n">
-        <v>130.7315834474461</v>
+        <v>172.3833679456084</v>
       </c>
       <c r="AC7" t="n">
-        <v>118.2547446061863</v>
+        <v>155.9313412505039</v>
       </c>
       <c r="AD7" t="n">
-        <v>95546.97282016955</v>
+        <v>125988.7514356458</v>
       </c>
       <c r="AE7" t="n">
-        <v>130731.5834474461</v>
+        <v>172383.3679456084</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.487527944139868e-06</v>
+        <v>7.720707495078279e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.62962962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>118254.7446061863</v>
+        <v>155931.3412505039</v>
       </c>
     </row>
     <row r="8">
@@ -10383,28 +10383,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>93.28998604421685</v>
+        <v>113.7267398788203</v>
       </c>
       <c r="AB8" t="n">
-        <v>127.64347456936</v>
+        <v>155.6059427717975</v>
       </c>
       <c r="AC8" t="n">
-        <v>115.4613605052357</v>
+        <v>140.7551299880121</v>
       </c>
       <c r="AD8" t="n">
-        <v>93289.98604421684</v>
+        <v>113726.7398788203</v>
       </c>
       <c r="AE8" t="n">
-        <v>127643.47456936</v>
+        <v>155605.9427717975</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.574266609214907e-06</v>
+        <v>7.869939738285246e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.540895061728396</v>
       </c>
       <c r="AH8" t="n">
-        <v>115461.3605052357</v>
+        <v>140755.1299880121</v>
       </c>
     </row>
     <row r="9">
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>92.18665962975243</v>
+        <v>112.6234134643559</v>
       </c>
       <c r="AB9" t="n">
-        <v>126.1338546937644</v>
+        <v>154.0963228962019</v>
       </c>
       <c r="AC9" t="n">
-        <v>114.0958166318017</v>
+        <v>139.3895861145781</v>
       </c>
       <c r="AD9" t="n">
-        <v>92186.65962975242</v>
+        <v>112623.4134643559</v>
       </c>
       <c r="AE9" t="n">
-        <v>126133.8546937644</v>
+        <v>154096.3228962019</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.615509202292177e-06</v>
+        <v>7.940896844614568e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.502314814814815</v>
       </c>
       <c r="AH9" t="n">
-        <v>114095.8166318017</v>
+        <v>139389.5861145781</v>
       </c>
     </row>
     <row r="10">
@@ -10595,28 +10595,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>91.25881053875777</v>
+        <v>111.5249721727691</v>
       </c>
       <c r="AB10" t="n">
-        <v>124.8643306336532</v>
+        <v>152.5933870612439</v>
       </c>
       <c r="AC10" t="n">
-        <v>112.9474541661989</v>
+        <v>138.0300883663243</v>
       </c>
       <c r="AD10" t="n">
-        <v>91258.81053875777</v>
+        <v>111524.9721727691</v>
       </c>
       <c r="AE10" t="n">
-        <v>124864.3306336532</v>
+        <v>152593.3870612439</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.634515253671128e-06</v>
+        <v>7.973596398836827e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.483024691358025</v>
       </c>
       <c r="AH10" t="n">
-        <v>112947.4541661989</v>
+        <v>138030.0883663243</v>
       </c>
     </row>
     <row r="11">
@@ -10701,28 +10701,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>90.15657329315907</v>
+        <v>110.4227349271704</v>
       </c>
       <c r="AB11" t="n">
-        <v>123.3562010069505</v>
+        <v>151.0852574345412</v>
       </c>
       <c r="AC11" t="n">
-        <v>111.583258314395</v>
+        <v>136.6658925145204</v>
       </c>
       <c r="AD11" t="n">
-        <v>90156.57329315908</v>
+        <v>110422.7349271704</v>
       </c>
       <c r="AE11" t="n">
-        <v>123356.2010069505</v>
+        <v>151085.2574345412</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.656428746337509e-06</v>
+        <v>8.01129815115541e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.459876543209877</v>
       </c>
       <c r="AH11" t="n">
-        <v>111583.258314395</v>
+        <v>136665.8925145204</v>
       </c>
     </row>
     <row r="12">
@@ -10807,28 +10807,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>88.88820760305968</v>
+        <v>109.154369237071</v>
       </c>
       <c r="AB12" t="n">
-        <v>121.6207671134124</v>
+        <v>149.349823541003</v>
       </c>
       <c r="AC12" t="n">
-        <v>110.0134517959588</v>
+        <v>135.0960859960842</v>
       </c>
       <c r="AD12" t="n">
-        <v>88888.20760305968</v>
+        <v>109154.369237071</v>
       </c>
       <c r="AE12" t="n">
-        <v>121620.7671134124</v>
+        <v>149349.823541003</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.692287188882498e-06</v>
+        <v>8.072991927676726e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.425154320987655</v>
       </c>
       <c r="AH12" t="n">
-        <v>110013.4517959588</v>
+        <v>135096.0859960842</v>
       </c>
     </row>
     <row r="13">
@@ -10913,28 +10913,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>88.74948081588281</v>
+        <v>109.0156424498941</v>
       </c>
       <c r="AB13" t="n">
-        <v>121.4309550030031</v>
+        <v>149.1600114305938</v>
       </c>
       <c r="AC13" t="n">
-        <v>109.841755086964</v>
+        <v>134.9243892870894</v>
       </c>
       <c r="AD13" t="n">
-        <v>88749.48081588281</v>
+        <v>109015.6424498941</v>
       </c>
       <c r="AE13" t="n">
-        <v>121430.9550030032</v>
+        <v>149160.0114305938</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.673604186535484e-06</v>
+        <v>8.040848173242948e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AH13" t="n">
-        <v>109841.755086964</v>
+        <v>134924.3892870894</v>
       </c>
     </row>
     <row r="14">
@@ -11019,28 +11019,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>88.87971724296932</v>
+        <v>109.1458788769806</v>
       </c>
       <c r="AB14" t="n">
-        <v>121.6091502281685</v>
+        <v>149.3382066557592</v>
       </c>
       <c r="AC14" t="n">
-        <v>110.0029436099382</v>
+        <v>135.0855778100636</v>
       </c>
       <c r="AD14" t="n">
-        <v>88879.71724296932</v>
+        <v>109145.8788769806</v>
       </c>
       <c r="AE14" t="n">
-        <v>121609.1502281685</v>
+        <v>149338.2066557592</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.670696745248052e-06</v>
+        <v>8.035845975146623e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.448302469135802</v>
       </c>
       <c r="AH14" t="n">
-        <v>110002.9436099382</v>
+        <v>135085.5778100636</v>
       </c>
     </row>
   </sheetData>
@@ -11316,28 +11316,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.3822752106051</v>
+        <v>83.70256703101904</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.8271575224091</v>
+        <v>114.525544908434</v>
       </c>
       <c r="AC2" t="n">
-        <v>82.1587410852086</v>
+        <v>103.5953876400144</v>
       </c>
       <c r="AD2" t="n">
-        <v>66382.2752106051</v>
+        <v>83702.56703101905</v>
       </c>
       <c r="AE2" t="n">
-        <v>90827.15752240909</v>
+        <v>114525.544908434</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.400246647904877e-06</v>
+        <v>1.082566047895499e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.602623456790123</v>
       </c>
       <c r="AH2" t="n">
-        <v>82158.7410852086</v>
+        <v>103595.3876400144</v>
       </c>
     </row>
     <row r="3">
@@ -11422,28 +11422,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.94081839792825</v>
+        <v>81.09051801775</v>
       </c>
       <c r="AB3" t="n">
-        <v>87.48664860183348</v>
+        <v>110.9516242130115</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.13704564757795</v>
+        <v>100.3625569197327</v>
       </c>
       <c r="AD3" t="n">
-        <v>63940.81839792825</v>
+        <v>81090.51801775</v>
       </c>
       <c r="AE3" t="n">
-        <v>87486.64860183348</v>
+        <v>110951.6242130115</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.627767211492942e-06</v>
+        <v>1.128176193764308e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.417438271604938</v>
       </c>
       <c r="AH3" t="n">
-        <v>79137.04564757795</v>
+        <v>100362.5569197327</v>
       </c>
     </row>
   </sheetData>
@@ -11719,28 +11719,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>134.8017489936157</v>
+        <v>164.1592528805396</v>
       </c>
       <c r="AB2" t="n">
-        <v>184.4417000064288</v>
+        <v>224.6099319861614</v>
       </c>
       <c r="AC2" t="n">
-        <v>166.8388430234188</v>
+        <v>203.1734753194862</v>
       </c>
       <c r="AD2" t="n">
-        <v>134801.7489936157</v>
+        <v>164159.2528805396</v>
       </c>
       <c r="AE2" t="n">
-        <v>184441.7000064288</v>
+        <v>224609.9319861614</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.541002563176633e-06</v>
+        <v>6.271378660308723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.099537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>166838.8430234188</v>
+        <v>203173.4753194862</v>
       </c>
     </row>
     <row r="3">
@@ -11825,28 +11825,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.9068123616568</v>
+        <v>125.5354053588375</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.9063729519659</v>
+        <v>171.7630798431022</v>
       </c>
       <c r="AC3" t="n">
-        <v>131.0767120948413</v>
+        <v>155.3702525739209</v>
       </c>
       <c r="AD3" t="n">
-        <v>105906.8123616568</v>
+        <v>125535.4053588375</v>
       </c>
       <c r="AE3" t="n">
-        <v>144906.3729519659</v>
+        <v>171763.0798431022</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.303679177149058e-06</v>
+        <v>7.622135615788677e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.01929012345679</v>
       </c>
       <c r="AH3" t="n">
-        <v>131076.7120948413</v>
+        <v>155370.2525739209</v>
       </c>
     </row>
     <row r="4">
@@ -11931,28 +11931,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>90.94587301674584</v>
+        <v>120.3032873951187</v>
       </c>
       <c r="AB4" t="n">
-        <v>124.4361557102077</v>
+        <v>164.6042652203919</v>
       </c>
       <c r="AC4" t="n">
-        <v>112.5601436564996</v>
+        <v>148.8946651713404</v>
       </c>
       <c r="AD4" t="n">
-        <v>90945.87301674584</v>
+        <v>120303.2873951187</v>
       </c>
       <c r="AE4" t="n">
-        <v>124436.1557102077</v>
+        <v>164604.2652203919</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.569678389596541e-06</v>
+        <v>8.093239986610017e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.72608024691358</v>
       </c>
       <c r="AH4" t="n">
-        <v>112560.1436564996</v>
+        <v>148894.6651713405</v>
       </c>
     </row>
     <row r="5">
@@ -12037,28 +12037,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.39550565910929</v>
+        <v>108.1093500023105</v>
       </c>
       <c r="AB5" t="n">
-        <v>120.9466305772241</v>
+        <v>147.9199821210096</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.4036539046276</v>
+        <v>133.8027066344195</v>
       </c>
       <c r="AD5" t="n">
-        <v>88395.50565910929</v>
+        <v>108109.3500023105</v>
       </c>
       <c r="AE5" t="n">
-        <v>120946.6305772241</v>
+        <v>147919.9821210096</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.691426766505901e-06</v>
+        <v>8.308865408860944e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.602623456790123</v>
       </c>
       <c r="AH5" t="n">
-        <v>109403.6539046276</v>
+        <v>133802.7066344195</v>
       </c>
     </row>
     <row r="6">
@@ -12143,28 +12143,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>86.60523243122609</v>
+        <v>106.3190767744273</v>
       </c>
       <c r="AB6" t="n">
-        <v>118.4970997655549</v>
+        <v>145.4704513093405</v>
       </c>
       <c r="AC6" t="n">
-        <v>107.1879028756853</v>
+        <v>131.5869556054772</v>
       </c>
       <c r="AD6" t="n">
-        <v>86605.23243122609</v>
+        <v>106319.0767744273</v>
       </c>
       <c r="AE6" t="n">
-        <v>118497.0997655549</v>
+        <v>145470.4513093405</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.773991757743283e-06</v>
+        <v>8.455094143490885e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.525462962962964</v>
       </c>
       <c r="AH6" t="n">
-        <v>107187.9028756853</v>
+        <v>131586.9556054772</v>
       </c>
     </row>
     <row r="7">
@@ -12249,28 +12249,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>84.24174802123133</v>
+        <v>103.7850001638404</v>
       </c>
       <c r="AB7" t="n">
-        <v>115.2632761262285</v>
+        <v>142.0032158951672</v>
       </c>
       <c r="AC7" t="n">
-        <v>104.2627108257952</v>
+        <v>128.450628272936</v>
       </c>
       <c r="AD7" t="n">
-        <v>84241.74802123132</v>
+        <v>103785.0001638404</v>
       </c>
       <c r="AE7" t="n">
-        <v>115263.2761262285</v>
+        <v>142003.2158951672</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.87139045927077e-06</v>
+        <v>8.627594481291626e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.43287037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>104262.7108257952</v>
+        <v>128450.628272936</v>
       </c>
     </row>
     <row r="8">
@@ -12355,28 +12355,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>82.64230748412176</v>
+        <v>102.1855596267308</v>
       </c>
       <c r="AB8" t="n">
-        <v>113.0748510210199</v>
+        <v>139.8147907899586</v>
       </c>
       <c r="AC8" t="n">
-        <v>102.283145941153</v>
+        <v>126.4710633882939</v>
       </c>
       <c r="AD8" t="n">
-        <v>82642.30748412176</v>
+        <v>102185.5596267308</v>
       </c>
       <c r="AE8" t="n">
-        <v>113074.8510210199</v>
+        <v>139814.7907899586</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.919809928708285e-06</v>
+        <v>8.713348959566134e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.390432098765433</v>
       </c>
       <c r="AH8" t="n">
-        <v>102283.145941153</v>
+        <v>126471.0633882939</v>
       </c>
     </row>
     <row r="9">
@@ -12461,28 +12461,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>81.86064325131449</v>
+        <v>101.4038953939235</v>
       </c>
       <c r="AB9" t="n">
-        <v>112.0053435331014</v>
+        <v>138.74528330204</v>
       </c>
       <c r="AC9" t="n">
-        <v>101.3157107468179</v>
+        <v>125.5036281939588</v>
       </c>
       <c r="AD9" t="n">
-        <v>81860.64325131448</v>
+        <v>101403.8953939235</v>
       </c>
       <c r="AE9" t="n">
-        <v>112005.3435331013</v>
+        <v>138745.28330204</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.946734512291459e-06</v>
+        <v>8.761034397774271e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.367283950617284</v>
       </c>
       <c r="AH9" t="n">
-        <v>101315.7107468179</v>
+        <v>125503.6281939588</v>
       </c>
     </row>
     <row r="10">
@@ -12567,28 +12567,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>82.03816724211129</v>
+        <v>101.5814193847203</v>
       </c>
       <c r="AB10" t="n">
-        <v>112.2482396891151</v>
+        <v>138.9881794580538</v>
       </c>
       <c r="AC10" t="n">
-        <v>101.5354252346087</v>
+        <v>125.7233426817496</v>
       </c>
       <c r="AD10" t="n">
-        <v>82038.16724211129</v>
+        <v>101581.4193847203</v>
       </c>
       <c r="AE10" t="n">
-        <v>112248.2396891151</v>
+        <v>138988.1794580538</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.942088482276068e-06</v>
+        <v>8.752805933384924e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.371141975308642</v>
       </c>
       <c r="AH10" t="n">
-        <v>101535.4252346087</v>
+        <v>125723.3426817496</v>
       </c>
     </row>
   </sheetData>
@@ -12864,28 +12864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.2294572783565</v>
+        <v>178.3213732144046</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.8140828702827</v>
+        <v>243.9871698155996</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.4577914525537</v>
+        <v>220.7013767666131</v>
       </c>
       <c r="AD2" t="n">
-        <v>148229.4572783565</v>
+        <v>178321.3732144047</v>
       </c>
       <c r="AE2" t="n">
-        <v>202814.0828702827</v>
+        <v>243987.1698155996</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.247626637761162e-06</v>
+        <v>5.663577276081405e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.516203703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>183457.7914525537</v>
+        <v>220701.3767666131</v>
       </c>
     </row>
     <row r="3">
@@ -12970,28 +12970,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>113.3797468007037</v>
+        <v>133.3842196969057</v>
       </c>
       <c r="AB3" t="n">
-        <v>155.1311715340643</v>
+        <v>182.5021738856922</v>
       </c>
       <c r="AC3" t="n">
-        <v>140.3256702508624</v>
+        <v>165.0844225535027</v>
       </c>
       <c r="AD3" t="n">
-        <v>113379.7468007037</v>
+        <v>133384.2196969058</v>
       </c>
       <c r="AE3" t="n">
-        <v>155131.1715340643</v>
+        <v>182502.1738856922</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.063399911143463e-06</v>
+        <v>7.08621463218697e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>140325.6702508624</v>
+        <v>165084.4225535027</v>
       </c>
     </row>
     <row r="4">
@@ -13076,28 +13076,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>96.52056963893519</v>
+        <v>126.4418038658401</v>
       </c>
       <c r="AB4" t="n">
-        <v>132.0637015669408</v>
+        <v>173.0032542678625</v>
       </c>
       <c r="AC4" t="n">
-        <v>119.4597272419964</v>
+        <v>156.4920664921782</v>
       </c>
       <c r="AD4" t="n">
-        <v>96520.56963893518</v>
+        <v>126441.8038658401</v>
       </c>
       <c r="AE4" t="n">
-        <v>132063.7015669408</v>
+        <v>173003.2542678625</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.372564489740748e-06</v>
+        <v>7.625370661255615e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.837962962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>119459.7272419964</v>
+        <v>156492.0664921782</v>
       </c>
     </row>
     <row r="5">
@@ -13182,28 +13182,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>93.08169688196574</v>
+        <v>123.0029311088706</v>
       </c>
       <c r="AB5" t="n">
-        <v>127.3584841484988</v>
+        <v>168.2980368494205</v>
       </c>
       <c r="AC5" t="n">
-        <v>115.2035691701549</v>
+        <v>152.2359084203367</v>
       </c>
       <c r="AD5" t="n">
-        <v>93081.69688196573</v>
+        <v>123002.9311088706</v>
       </c>
       <c r="AE5" t="n">
-        <v>127358.4841484988</v>
+        <v>168298.0368494205</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.546260466398119e-06</v>
+        <v>7.92828127755159e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.652777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>115203.5691701549</v>
+        <v>152235.9084203367</v>
       </c>
     </row>
     <row r="6">
@@ -13288,28 +13288,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>91.20117031969404</v>
+        <v>111.2908945619167</v>
       </c>
       <c r="AB6" t="n">
-        <v>124.7854647430233</v>
+        <v>152.2731117473004</v>
       </c>
       <c r="AC6" t="n">
-        <v>112.8761151254817</v>
+        <v>137.7403796788343</v>
       </c>
       <c r="AD6" t="n">
-        <v>91201.17031969404</v>
+        <v>111290.8945619167</v>
       </c>
       <c r="AE6" t="n">
-        <v>124785.4647430233</v>
+        <v>152273.1117473005</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.629296686372625e-06</v>
+        <v>8.073089194530468e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.57175925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>112876.1151254817</v>
+        <v>137740.3796788343</v>
       </c>
     </row>
     <row r="7">
@@ -13394,28 +13394,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>89.76178372847491</v>
+        <v>109.8515079706975</v>
       </c>
       <c r="AB7" t="n">
-        <v>122.8160325076636</v>
+        <v>150.3036795119407</v>
       </c>
       <c r="AC7" t="n">
-        <v>111.0946427385486</v>
+        <v>135.9589072919011</v>
       </c>
       <c r="AD7" t="n">
-        <v>89761.78372847491</v>
+        <v>109851.5079706975</v>
       </c>
       <c r="AE7" t="n">
-        <v>122816.0325076636</v>
+        <v>150303.6795119407</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.673118311048735e-06</v>
+        <v>8.149510281496202e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.529320987654321</v>
       </c>
       <c r="AH7" t="n">
-        <v>111094.6427385486</v>
+        <v>135958.9072919012</v>
       </c>
     </row>
     <row r="8">
@@ -13500,28 +13500,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>88.49414139622633</v>
+        <v>108.4132734378568</v>
       </c>
       <c r="AB8" t="n">
-        <v>121.0815883442492</v>
+        <v>148.3358235736795</v>
       </c>
       <c r="AC8" t="n">
-        <v>109.5257314917822</v>
+        <v>134.1788607624838</v>
       </c>
       <c r="AD8" t="n">
-        <v>88494.14139622633</v>
+        <v>108413.2734378568</v>
       </c>
       <c r="AE8" t="n">
-        <v>121081.5883442492</v>
+        <v>148335.8235736795</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.72072428128511e-06</v>
+        <v>8.232530936672997e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.483024691358025</v>
       </c>
       <c r="AH8" t="n">
-        <v>109525.7314917822</v>
+        <v>134178.8607624838</v>
       </c>
     </row>
     <row r="9">
@@ -13606,28 +13606,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>86.87601547963003</v>
+        <v>106.7951475212605</v>
       </c>
       <c r="AB9" t="n">
-        <v>118.867597078486</v>
+        <v>146.1218323079163</v>
       </c>
       <c r="AC9" t="n">
-        <v>107.5230404450666</v>
+        <v>132.1761697157681</v>
       </c>
       <c r="AD9" t="n">
-        <v>86876.01547963003</v>
+        <v>106795.1475212605</v>
       </c>
       <c r="AE9" t="n">
-        <v>118867.597078486</v>
+        <v>146121.8323079163</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.778092766155211e-06</v>
+        <v>8.332576564915998e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.429012345679013</v>
       </c>
       <c r="AH9" t="n">
-        <v>107523.0404450666</v>
+        <v>132176.1697157681</v>
       </c>
     </row>
     <row r="10">
@@ -13712,28 +13712,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>85.81731280559472</v>
+        <v>105.7364448472252</v>
       </c>
       <c r="AB10" t="n">
-        <v>117.4190333732061</v>
+        <v>144.6732686026363</v>
       </c>
       <c r="AC10" t="n">
-        <v>106.2127256267461</v>
+        <v>130.8658548974477</v>
       </c>
       <c r="AD10" t="n">
-        <v>85817.31280559473</v>
+        <v>105736.4448472252</v>
       </c>
       <c r="AE10" t="n">
-        <v>117419.0333732061</v>
+        <v>144673.2686026364</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.795259435145978e-06</v>
+        <v>8.362513736656018e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.41358024691358</v>
       </c>
       <c r="AH10" t="n">
-        <v>106212.7256267461</v>
+        <v>130865.8548974477</v>
       </c>
     </row>
     <row r="11">
@@ -13818,28 +13818,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>84.96683948833684</v>
+        <v>104.8859715299673</v>
       </c>
       <c r="AB11" t="n">
-        <v>116.2553782602997</v>
+        <v>143.50961348973</v>
       </c>
       <c r="AC11" t="n">
-        <v>105.160128124615</v>
+        <v>129.8132573953165</v>
       </c>
       <c r="AD11" t="n">
-        <v>84966.83948833685</v>
+        <v>104885.9715299673</v>
       </c>
       <c r="AE11" t="n">
-        <v>116255.3782602997</v>
+        <v>143509.61348973</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.81593622175786e-06</v>
+        <v>8.398572247026583e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.39429012345679</v>
       </c>
       <c r="AH11" t="n">
-        <v>105160.128124615</v>
+        <v>129813.2573953165</v>
       </c>
     </row>
   </sheetData>
@@ -14115,28 +14115,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.4688876291951</v>
+        <v>229.6479967239998</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.8714467146494</v>
+        <v>314.2145204722105</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.2605577651271</v>
+        <v>284.226327641285</v>
       </c>
       <c r="AD2" t="n">
-        <v>188468.8876291951</v>
+        <v>229647.9967239998</v>
       </c>
       <c r="AE2" t="n">
-        <v>257871.4467146494</v>
+        <v>314214.5204722105</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.763216677868734e-06</v>
+        <v>4.697285216381698e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.391975308641976</v>
       </c>
       <c r="AH2" t="n">
-        <v>233260.5577651271</v>
+        <v>284226.327641285</v>
       </c>
     </row>
     <row r="3">
@@ -14221,28 +14221,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.8966824262375</v>
+        <v>162.9089583977851</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.4668597664522</v>
+        <v>222.899223915758</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.243355957221</v>
+        <v>201.6260348263277</v>
       </c>
       <c r="AD3" t="n">
-        <v>131896.6824262375</v>
+        <v>162908.9583977851</v>
       </c>
       <c r="AE3" t="n">
-        <v>180466.8597664522</v>
+        <v>222899.223915758</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.571477540326343e-06</v>
+        <v>6.071275113956574e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.717592592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>163243.355957221</v>
+        <v>201626.0348263277</v>
       </c>
     </row>
     <row r="4">
@@ -14327,28 +14327,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.6165583196659</v>
+        <v>139.2914984759153</v>
       </c>
       <c r="AB4" t="n">
-        <v>162.2964080861236</v>
+        <v>190.5847733218759</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.8070666828681</v>
+        <v>172.3956300434992</v>
       </c>
       <c r="AD4" t="n">
-        <v>118616.5583196659</v>
+        <v>139291.4984759153</v>
       </c>
       <c r="AE4" t="n">
-        <v>162296.4080861236</v>
+        <v>190584.7733218759</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.014041124957311e-06</v>
+        <v>6.823603876317456e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.088734567901234</v>
       </c>
       <c r="AH4" t="n">
-        <v>146807.0666828681</v>
+        <v>172395.6300434992</v>
       </c>
     </row>
     <row r="5">
@@ -14433,28 +14433,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>104.4699195317965</v>
+        <v>135.3968546487725</v>
       </c>
       <c r="AB5" t="n">
-        <v>142.9403527909143</v>
+        <v>185.2559498180225</v>
       </c>
       <c r="AC5" t="n">
-        <v>129.2983261386332</v>
+        <v>167.5753819758011</v>
       </c>
       <c r="AD5" t="n">
-        <v>104469.9195317965</v>
+        <v>135396.8546487725</v>
       </c>
       <c r="AE5" t="n">
-        <v>142940.3527909143</v>
+        <v>185255.9498180225</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.172220549703404e-06</v>
+        <v>7.092498414826347e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>129298.3261386332</v>
+        <v>167575.3819758011</v>
       </c>
     </row>
     <row r="6">
@@ -14539,28 +14539,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>101.8083863042023</v>
+        <v>132.7353214211784</v>
       </c>
       <c r="AB6" t="n">
-        <v>139.2987256103627</v>
+        <v>181.614322637471</v>
       </c>
       <c r="AC6" t="n">
-        <v>126.0042507451364</v>
+        <v>164.2813065823044</v>
       </c>
       <c r="AD6" t="n">
-        <v>101808.3863042023</v>
+        <v>132735.3214211783</v>
       </c>
       <c r="AE6" t="n">
-        <v>139298.7256103627</v>
+        <v>181614.322637471</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.283920210417679e-06</v>
+        <v>7.282380434991593e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.768518518518518</v>
       </c>
       <c r="AH6" t="n">
-        <v>126004.2507451364</v>
+        <v>164281.3065823044</v>
       </c>
     </row>
     <row r="7">
@@ -14645,28 +14645,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>99.83952669529963</v>
+        <v>130.7664618122757</v>
       </c>
       <c r="AB7" t="n">
-        <v>136.6048450335077</v>
+        <v>178.9204420606159</v>
       </c>
       <c r="AC7" t="n">
-        <v>123.5674703496505</v>
+        <v>161.8445261868184</v>
       </c>
       <c r="AD7" t="n">
-        <v>99839.52669529963</v>
+        <v>130766.4618122757</v>
       </c>
       <c r="AE7" t="n">
-        <v>136604.8450335077</v>
+        <v>178920.4420606159</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.363327552157685e-06</v>
+        <v>7.417367653118545e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.679783950617284</v>
       </c>
       <c r="AH7" t="n">
-        <v>123567.4703496505</v>
+        <v>161844.5261868184</v>
       </c>
     </row>
     <row r="8">
@@ -14751,28 +14751,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>98.83432262074615</v>
+        <v>129.7612577377222</v>
       </c>
       <c r="AB8" t="n">
-        <v>135.2294804722304</v>
+        <v>177.5450774993386</v>
       </c>
       <c r="AC8" t="n">
-        <v>122.3233686517648</v>
+        <v>160.6004244889327</v>
       </c>
       <c r="AD8" t="n">
-        <v>98834.32262074616</v>
+        <v>129761.2577377222</v>
       </c>
       <c r="AE8" t="n">
-        <v>135229.4804722304</v>
+        <v>177545.0774993386</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.398372658978941e-06</v>
+        <v>7.476942012051907e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.645061728395062</v>
       </c>
       <c r="AH8" t="n">
-        <v>122323.3686517648</v>
+        <v>160600.4244889327</v>
       </c>
     </row>
     <row r="9">
@@ -14857,28 +14857,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>97.4614997967212</v>
+        <v>118.2216912989913</v>
       </c>
       <c r="AB9" t="n">
-        <v>133.3511237197318</v>
+        <v>161.7561336081334</v>
       </c>
       <c r="AC9" t="n">
-        <v>120.6242796314338</v>
+        <v>146.3183552427771</v>
       </c>
       <c r="AD9" t="n">
-        <v>97461.4997967212</v>
+        <v>118221.6912989913</v>
       </c>
       <c r="AE9" t="n">
-        <v>133351.1237197318</v>
+        <v>161756.1336081334</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.445381805289024e-06</v>
+        <v>7.556854445183063e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.594907407407408</v>
       </c>
       <c r="AH9" t="n">
-        <v>120624.2796314338</v>
+        <v>146318.3552427771</v>
       </c>
     </row>
     <row r="10">
@@ -14963,28 +14963,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>96.17224991891722</v>
+        <v>116.9324414211873</v>
       </c>
       <c r="AB10" t="n">
-        <v>131.5871151592309</v>
+        <v>159.9921250476324</v>
       </c>
       <c r="AC10" t="n">
-        <v>119.028625572145</v>
+        <v>144.7227011834883</v>
       </c>
       <c r="AD10" t="n">
-        <v>96172.24991891722</v>
+        <v>116932.4414211873</v>
       </c>
       <c r="AE10" t="n">
-        <v>131587.1151592309</v>
+        <v>159992.1250476324</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.487573572866881e-06</v>
+        <v>7.628577653747852e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.55246913580247</v>
       </c>
       <c r="AH10" t="n">
-        <v>119028.625572145</v>
+        <v>144722.7011834883</v>
       </c>
     </row>
     <row r="11">
@@ -15069,28 +15069,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>95.05699812095828</v>
+        <v>115.8171896232283</v>
       </c>
       <c r="AB11" t="n">
-        <v>130.0611784478274</v>
+        <v>158.4661883362289</v>
       </c>
       <c r="AC11" t="n">
-        <v>117.6483221188117</v>
+        <v>143.342397730155</v>
       </c>
       <c r="AD11" t="n">
-        <v>95056.99812095828</v>
+        <v>115817.1896232283</v>
       </c>
       <c r="AE11" t="n">
-        <v>130061.1784478274</v>
+        <v>158466.1883362289</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.517642486272429e-06</v>
+        <v>7.679692813678589e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.521604938271605</v>
       </c>
       <c r="AH11" t="n">
-        <v>117648.3221188117</v>
+        <v>143342.397730155</v>
       </c>
     </row>
     <row r="12">
@@ -15175,28 +15175,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>94.29272026823821</v>
+        <v>115.0529117705083</v>
       </c>
       <c r="AB12" t="n">
-        <v>129.0154597721771</v>
+        <v>157.4204696605786</v>
       </c>
       <c r="AC12" t="n">
-        <v>116.7024053658898</v>
+        <v>142.3964809772331</v>
       </c>
       <c r="AD12" t="n">
-        <v>94292.72026823822</v>
+        <v>115052.9117705083</v>
       </c>
       <c r="AE12" t="n">
-        <v>129015.4597721771</v>
+        <v>157420.4696605786</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.533259263481298e-06</v>
+        <v>7.706240299910223e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.506172839506173</v>
       </c>
       <c r="AH12" t="n">
-        <v>116702.4053658898</v>
+        <v>142396.4809772331</v>
       </c>
     </row>
     <row r="13">
@@ -15281,28 +15281,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>93.31212820661082</v>
+        <v>113.9017275082887</v>
       </c>
       <c r="AB13" t="n">
-        <v>127.6737704527906</v>
+        <v>155.8453685663453</v>
       </c>
       <c r="AC13" t="n">
-        <v>115.4887649920723</v>
+        <v>140.9717053207646</v>
       </c>
       <c r="AD13" t="n">
-        <v>93312.12820661083</v>
+        <v>113901.7275082887</v>
       </c>
       <c r="AE13" t="n">
-        <v>127673.7704527906</v>
+        <v>155845.3685663453</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.5578755394207e-06</v>
+        <v>7.74808633752958e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.479166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>115488.7649920723</v>
+        <v>140971.7053207646</v>
       </c>
     </row>
     <row r="14">
@@ -15387,28 +15387,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>92.61701417257733</v>
+        <v>113.2066134742552</v>
       </c>
       <c r="AB14" t="n">
-        <v>126.7226847651596</v>
+        <v>154.8942828787143</v>
       </c>
       <c r="AC14" t="n">
-        <v>114.6284495876114</v>
+        <v>140.1113899163036</v>
       </c>
       <c r="AD14" t="n">
-        <v>92617.01417257733</v>
+        <v>113206.6134742552</v>
       </c>
       <c r="AE14" t="n">
-        <v>126722.6847651596</v>
+        <v>154894.2828787143</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.559040180432887e-06</v>
+        <v>7.750066150062108e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.479166666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>114628.4495876114</v>
+        <v>140111.3899163036</v>
       </c>
     </row>
     <row r="15">
@@ -15493,28 +15493,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>91.9915783494493</v>
+        <v>112.5811776511271</v>
       </c>
       <c r="AB15" t="n">
-        <v>125.8669358796751</v>
+        <v>154.0385339932298</v>
       </c>
       <c r="AC15" t="n">
-        <v>113.8543721747061</v>
+        <v>139.3373125033984</v>
       </c>
       <c r="AD15" t="n">
-        <v>91991.57834944929</v>
+        <v>112581.1776511271</v>
       </c>
       <c r="AE15" t="n">
-        <v>125866.9358796751</v>
+        <v>154038.5339932298</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.580638977386168e-06</v>
+        <v>7.786782673392639e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.459876543209877</v>
       </c>
       <c r="AH15" t="n">
-        <v>113854.3721747061</v>
+        <v>139337.3125033984</v>
       </c>
     </row>
     <row r="16">
@@ -15599,28 +15599,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>92.034004873844</v>
+        <v>112.6236041755218</v>
       </c>
       <c r="AB16" t="n">
-        <v>125.9249857220781</v>
+        <v>154.0965838356328</v>
       </c>
       <c r="AC16" t="n">
-        <v>113.9068818216236</v>
+        <v>139.3898221503159</v>
       </c>
       <c r="AD16" t="n">
-        <v>92034.00487384399</v>
+        <v>112623.6041755218</v>
       </c>
       <c r="AE16" t="n">
-        <v>125924.9857220781</v>
+        <v>154096.5838356328</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.582280062448795e-06</v>
+        <v>7.78957240923393e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>5</v>
+        <v>4.456018518518519</v>
       </c>
       <c r="AH16" t="n">
-        <v>113906.8818216236</v>
+        <v>139389.8221503159</v>
       </c>
     </row>
   </sheetData>
@@ -15896,28 +15896,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>113.146429622367</v>
+        <v>141.9708687058286</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.8119366774367</v>
+        <v>194.2508058759132</v>
       </c>
       <c r="AC2" t="n">
-        <v>140.0369027209023</v>
+        <v>175.7117815958894</v>
       </c>
       <c r="AD2" t="n">
-        <v>113146.429622367</v>
+        <v>141970.8687058286</v>
       </c>
       <c r="AE2" t="n">
-        <v>154811.9366774367</v>
+        <v>194250.8058759132</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.854399925477769e-06</v>
+        <v>6.950395170613029e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.733024691358025</v>
       </c>
       <c r="AH2" t="n">
-        <v>140036.9027209023</v>
+        <v>175711.7815958894</v>
       </c>
     </row>
     <row r="3">
@@ -16002,28 +16002,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.06690942218184</v>
+        <v>117.8060076510718</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.865274826103</v>
+        <v>161.187376902382</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.2346240357191</v>
+        <v>145.8038798787674</v>
       </c>
       <c r="AD3" t="n">
-        <v>89066.90942218184</v>
+        <v>117806.0076510718</v>
       </c>
       <c r="AE3" t="n">
-        <v>121865.2748261031</v>
+        <v>161187.376902382</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.557803142141978e-06</v>
+        <v>8.218797623555322e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.849537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>110234.6240357191</v>
+        <v>145803.8798787674</v>
       </c>
     </row>
     <row r="4">
@@ -16108,28 +16108,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>84.48475640618491</v>
+        <v>103.7863899830643</v>
       </c>
       <c r="AB4" t="n">
-        <v>115.5957709192952</v>
+        <v>142.0051175071438</v>
       </c>
       <c r="AC4" t="n">
-        <v>104.563472782471</v>
+        <v>128.4523483977345</v>
       </c>
       <c r="AD4" t="n">
-        <v>84484.75640618491</v>
+        <v>103786.3899830643</v>
       </c>
       <c r="AE4" t="n">
-        <v>115595.7709192952</v>
+        <v>142005.1175071438</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.818558299728051e-06</v>
+        <v>8.689000877768501e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.587191358024692</v>
       </c>
       <c r="AH4" t="n">
-        <v>104563.472782471</v>
+        <v>128452.3483977345</v>
       </c>
     </row>
     <row r="5">
@@ -16214,28 +16214,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.15678031242514</v>
+        <v>101.2878216887123</v>
       </c>
       <c r="AB5" t="n">
-        <v>112.4105313247578</v>
+        <v>138.5864661377596</v>
       </c>
       <c r="AC5" t="n">
-        <v>101.6822279843234</v>
+        <v>125.3599683169359</v>
       </c>
       <c r="AD5" t="n">
-        <v>82156.78031242514</v>
+        <v>101287.8216887123</v>
       </c>
       <c r="AE5" t="n">
-        <v>112410.5313247578</v>
+        <v>138586.4661377596</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.935047645330967e-06</v>
+        <v>8.899058733922599e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.475308641975309</v>
       </c>
       <c r="AH5" t="n">
-        <v>101682.2279843234</v>
+        <v>125359.9683169359</v>
       </c>
     </row>
     <row r="6">
@@ -16320,28 +16320,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>80.10475784939219</v>
+        <v>99.2357992256793</v>
       </c>
       <c r="AB6" t="n">
-        <v>109.6028636619957</v>
+        <v>135.7787984749974</v>
       </c>
       <c r="AC6" t="n">
-        <v>99.14252018270807</v>
+        <v>122.8202605153206</v>
       </c>
       <c r="AD6" t="n">
-        <v>80104.75784939219</v>
+        <v>99235.79922567931</v>
       </c>
       <c r="AE6" t="n">
-        <v>109602.8636619957</v>
+        <v>135778.7984749975</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.029144004635583e-06</v>
+        <v>9.068736736705873e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.39429012345679</v>
       </c>
       <c r="AH6" t="n">
-        <v>99142.52018270807</v>
+        <v>122820.2605153206</v>
       </c>
     </row>
     <row r="7">
@@ -16426,28 +16426,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>78.53088643323261</v>
+        <v>97.66192780951975</v>
       </c>
       <c r="AB7" t="n">
-        <v>107.4494233561008</v>
+        <v>133.6253581691026</v>
       </c>
       <c r="AC7" t="n">
-        <v>97.19460119723465</v>
+        <v>120.8723415298471</v>
       </c>
       <c r="AD7" t="n">
-        <v>78530.8864332326</v>
+        <v>97661.92780951975</v>
       </c>
       <c r="AE7" t="n">
-        <v>107449.4233561008</v>
+        <v>133625.3581691026</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.077996222825989e-06</v>
+        <v>9.156828846489278e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.351851851851851</v>
       </c>
       <c r="AH7" t="n">
-        <v>97194.60119723465</v>
+        <v>120872.3415298472</v>
       </c>
     </row>
     <row r="8">
@@ -16532,28 +16532,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>78.52000482883606</v>
+        <v>97.65104620512322</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.4345346649029</v>
+        <v>133.6104694779047</v>
       </c>
       <c r="AC8" t="n">
-        <v>97.18113346182831</v>
+        <v>120.8588737944408</v>
       </c>
       <c r="AD8" t="n">
-        <v>78520.00482883607</v>
+        <v>97651.04620512322</v>
       </c>
       <c r="AE8" t="n">
-        <v>107434.5346649029</v>
+        <v>133610.4694779047</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.069233749926655e-06</v>
+        <v>9.141028034300697e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.359567901234568</v>
       </c>
       <c r="AH8" t="n">
-        <v>97181.13346182831</v>
+        <v>120858.8737944408</v>
       </c>
     </row>
   </sheetData>
@@ -16829,28 +16829,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.03969982078483</v>
+        <v>114.5432303282881</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.4057542672687</v>
+        <v>156.7231010257751</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.8645735091699</v>
+        <v>141.7656682261719</v>
       </c>
       <c r="AD2" t="n">
-        <v>96039.69982078484</v>
+        <v>114543.2303282881</v>
       </c>
       <c r="AE2" t="n">
-        <v>131405.7542672687</v>
+        <v>156723.1010257751</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.44734468503127e-06</v>
+        <v>8.297323620836885e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.173611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>118864.5735091699</v>
+        <v>141765.6682261719</v>
       </c>
     </row>
     <row r="3">
@@ -16935,28 +16935,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.76691913464919</v>
+        <v>96.35570098817306</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.4041295943209</v>
+        <v>131.8381210054766</v>
       </c>
       <c r="AC3" t="n">
-        <v>96.24906880499975</v>
+        <v>119.255675772714</v>
       </c>
       <c r="AD3" t="n">
-        <v>77766.91913464919</v>
+        <v>96355.70098817305</v>
       </c>
       <c r="AE3" t="n">
-        <v>106404.1295943209</v>
+        <v>131838.1210054766</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.043501730659824e-06</v>
+        <v>9.409562110709493e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.564043209876544</v>
       </c>
       <c r="AH3" t="n">
-        <v>96249.06880499976</v>
+        <v>119255.675772714</v>
       </c>
     </row>
     <row r="4">
@@ -17041,28 +17041,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.05955651555277</v>
+        <v>93.47774616848442</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.699796618466</v>
+        <v>127.9003762547748</v>
       </c>
       <c r="AC4" t="n">
-        <v>92.89827216929525</v>
+        <v>115.6937438543584</v>
       </c>
       <c r="AD4" t="n">
-        <v>75059.55651555277</v>
+        <v>93477.74616848442</v>
       </c>
       <c r="AE4" t="n">
-        <v>102699.796618466</v>
+        <v>127900.3762547748</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.202548531785186e-06</v>
+        <v>9.706292603454451e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.425154320987655</v>
       </c>
       <c r="AH4" t="n">
-        <v>92898.27216929525</v>
+        <v>115693.7438543584</v>
       </c>
     </row>
     <row r="5">
@@ -17147,28 +17147,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>73.02059602073523</v>
+        <v>91.43878567366689</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.91000091686955</v>
+        <v>125.1105805531784</v>
       </c>
       <c r="AC5" t="n">
-        <v>90.37473065395542</v>
+        <v>113.1702023390186</v>
       </c>
       <c r="AD5" t="n">
-        <v>73020.59602073523</v>
+        <v>91438.78567366689</v>
       </c>
       <c r="AE5" t="n">
-        <v>99910.00091686955</v>
+        <v>125110.5805531784</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.302236155446279e-06</v>
+        <v>9.892277844781092e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.340277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>90374.73065395543</v>
+        <v>113170.2023390186</v>
       </c>
     </row>
     <row r="6">
@@ -17253,28 +17253,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>73.18514416790583</v>
+        <v>91.60333382083749</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.1351429511802</v>
+        <v>125.335722587489</v>
       </c>
       <c r="AC6" t="n">
-        <v>90.57838544850033</v>
+        <v>113.3738571335635</v>
       </c>
       <c r="AD6" t="n">
-        <v>73185.14416790583</v>
+        <v>91603.33382083749</v>
       </c>
       <c r="AE6" t="n">
-        <v>100135.1429511802</v>
+        <v>125335.722587489</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.292690961080166e-06</v>
+        <v>9.874469563145986e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.347993827160494</v>
       </c>
       <c r="AH6" t="n">
-        <v>90578.38544850032</v>
+        <v>113373.8571335635</v>
       </c>
     </row>
   </sheetData>
@@ -31891,28 +31891,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.27547855876506</v>
+        <v>105.0906056436712</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.0999630344542</v>
+        <v>143.7896029119194</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.87849287821533</v>
+        <v>130.0665250200199</v>
       </c>
       <c r="AD2" t="n">
-        <v>78275.47855876505</v>
+        <v>105090.6056436712</v>
       </c>
       <c r="AE2" t="n">
-        <v>107099.9630344543</v>
+        <v>143789.6029119194</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.776023093274637e-06</v>
+        <v>9.184469520534154e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.984567901234568</v>
       </c>
       <c r="AH2" t="n">
-        <v>96878.49287821533</v>
+        <v>130066.5250200199</v>
       </c>
     </row>
     <row r="3">
@@ -31997,28 +31997,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>70.49176082914265</v>
+        <v>88.34015477610721</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.44993704339947</v>
+        <v>120.8708970571921</v>
       </c>
       <c r="AC3" t="n">
-        <v>87.24489042033808</v>
+        <v>109.3351482854548</v>
       </c>
       <c r="AD3" t="n">
-        <v>70491.76082914264</v>
+        <v>88340.15477610721</v>
       </c>
       <c r="AE3" t="n">
-        <v>96449.93704339948</v>
+        <v>120870.8970571921</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.355445517364721e-06</v>
+        <v>1.029872032913329e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>87244.89042033808</v>
+        <v>109335.1482854548</v>
       </c>
     </row>
     <row r="4">
@@ -32103,28 +32103,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.73364103056238</v>
+        <v>86.58203497752696</v>
       </c>
       <c r="AB4" t="n">
-        <v>94.04439997221178</v>
+        <v>118.4653599860044</v>
       </c>
       <c r="AC4" t="n">
-        <v>85.06893443103128</v>
+        <v>107.159192296148</v>
       </c>
       <c r="AD4" t="n">
-        <v>68733.64103056239</v>
+        <v>86582.03497752696</v>
       </c>
       <c r="AE4" t="n">
-        <v>94044.39997221177</v>
+        <v>118465.3599860044</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.478562754137509e-06</v>
+        <v>1.053547934107867e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.344135802469136</v>
       </c>
       <c r="AH4" t="n">
-        <v>85068.93443103127</v>
+        <v>107159.192296148</v>
       </c>
     </row>
   </sheetData>
@@ -32400,28 +32400,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.71816065762383</v>
+        <v>77.43704281180828</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.07726610792578</v>
+        <v>105.952778256294</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.1484884302802</v>
+        <v>95.84079380519839</v>
       </c>
       <c r="AD2" t="n">
-        <v>60718.16065762383</v>
+        <v>77437.04281180828</v>
       </c>
       <c r="AE2" t="n">
-        <v>83077.26610792578</v>
+        <v>105952.778256294</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.687883742552675e-06</v>
+        <v>1.173182514737932e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.494598765432099</v>
       </c>
       <c r="AH2" t="n">
-        <v>75148.48843028019</v>
+        <v>95840.79380519839</v>
       </c>
     </row>
     <row r="3">
@@ -32506,28 +32506,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.11376502752952</v>
+        <v>78.00323938230618</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.61854945966351</v>
+        <v>106.7274733828786</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.63811245862419</v>
+        <v>96.54155311619341</v>
       </c>
       <c r="AD3" t="n">
-        <v>61113.76502752952</v>
+        <v>78003.23938230617</v>
       </c>
       <c r="AE3" t="n">
-        <v>83618.54945966351</v>
+        <v>106727.4733828786</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.663839795765055e-06</v>
+        <v>1.168223211905229e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.510030864197531</v>
       </c>
       <c r="AH3" t="n">
-        <v>75638.11245862419</v>
+        <v>96541.55311619342</v>
       </c>
     </row>
   </sheetData>
@@ -32803,28 +32803,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.057249203956</v>
+        <v>170.7026757684972</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.0007513674041</v>
+        <v>233.5629318569046</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.5810305352094</v>
+        <v>211.2720134481828</v>
       </c>
       <c r="AD2" t="n">
-        <v>141057.249203956</v>
+        <v>170702.6757684972</v>
       </c>
       <c r="AE2" t="n">
-        <v>193000.7513674041</v>
+        <v>233562.9318569046</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.398256178356152e-06</v>
+        <v>5.970602051724171e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.288580246913581</v>
       </c>
       <c r="AH2" t="n">
-        <v>174581.0305352094</v>
+        <v>211272.0134481828</v>
       </c>
     </row>
     <row r="3">
@@ -32909,28 +32909,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.6578238827445</v>
+        <v>129.47836533167</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.0386723980645</v>
+        <v>177.1580116290461</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.7191920850335</v>
+        <v>160.2502996420504</v>
       </c>
       <c r="AD3" t="n">
-        <v>109657.8238827445</v>
+        <v>129478.36533167</v>
       </c>
       <c r="AE3" t="n">
-        <v>150038.6723980645</v>
+        <v>177158.0116290461</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.181237711267807e-06</v>
+        <v>7.34626971817004e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.111882716049383</v>
       </c>
       <c r="AH3" t="n">
-        <v>135719.1920850335</v>
+        <v>160250.2996420504</v>
       </c>
     </row>
     <row r="4">
@@ -33015,28 +33015,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>94.90311930502</v>
+        <v>124.5484563610101</v>
       </c>
       <c r="AB4" t="n">
-        <v>129.8506346632065</v>
+        <v>170.4126926831587</v>
       </c>
       <c r="AC4" t="n">
-        <v>117.4578723374949</v>
+        <v>154.1487444692417</v>
       </c>
       <c r="AD4" t="n">
-        <v>94903.11930501999</v>
+        <v>124548.4563610101</v>
       </c>
       <c r="AE4" t="n">
-        <v>129850.6346632065</v>
+        <v>170412.6926831587</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.416603012530036e-06</v>
+        <v>7.75979726785016e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.837962962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>117457.8723374949</v>
+        <v>154148.7444692417</v>
       </c>
     </row>
     <row r="5">
@@ -33121,28 +33121,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>89.84646849590354</v>
+        <v>109.7522612908497</v>
       </c>
       <c r="AB5" t="n">
-        <v>122.9319019424876</v>
+        <v>150.1678858261184</v>
       </c>
       <c r="AC5" t="n">
-        <v>111.1994537571368</v>
+        <v>135.8360735648661</v>
       </c>
       <c r="AD5" t="n">
-        <v>89846.46849590354</v>
+        <v>109752.2612908497</v>
       </c>
       <c r="AE5" t="n">
-        <v>122931.9019424876</v>
+        <v>150167.8858261184</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.665539624408705e-06</v>
+        <v>8.197169074925343e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.579475308641975</v>
       </c>
       <c r="AH5" t="n">
-        <v>111199.4537571368</v>
+        <v>135836.0735648661</v>
       </c>
     </row>
     <row r="6">
@@ -33227,28 +33227,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>88.5205539089704</v>
+        <v>108.4263467039165</v>
       </c>
       <c r="AB6" t="n">
-        <v>121.1177271094234</v>
+        <v>148.3537109930542</v>
       </c>
       <c r="AC6" t="n">
-        <v>109.5584212239294</v>
+        <v>134.1950410316586</v>
       </c>
       <c r="AD6" t="n">
-        <v>88520.5539089704</v>
+        <v>108426.3467039165</v>
       </c>
       <c r="AE6" t="n">
-        <v>121117.7271094234</v>
+        <v>148353.7109930542</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.716999818542057e-06</v>
+        <v>8.287582606027445e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.529320987654321</v>
       </c>
       <c r="AH6" t="n">
-        <v>109558.4212239294</v>
+        <v>134195.0410316586</v>
       </c>
     </row>
     <row r="7">
@@ -33333,28 +33333,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>87.00697821855189</v>
+        <v>106.7421788129058</v>
       </c>
       <c r="AB7" t="n">
-        <v>119.0467860755471</v>
+        <v>146.049358184331</v>
       </c>
       <c r="AC7" t="n">
-        <v>107.6851278957415</v>
+        <v>132.1106124208197</v>
       </c>
       <c r="AD7" t="n">
-        <v>87006.9782185519</v>
+        <v>106742.1788129058</v>
       </c>
       <c r="AE7" t="n">
-        <v>119046.7860755471</v>
+        <v>146049.358184331</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.784911764728805e-06</v>
+        <v>8.40690121650234e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.467592592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>107685.1278957415</v>
+        <v>132110.6124208197</v>
       </c>
     </row>
     <row r="8">
@@ -33439,28 +33439,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>85.34060682663497</v>
+        <v>105.0758074209889</v>
       </c>
       <c r="AB8" t="n">
-        <v>116.7667832220101</v>
+        <v>143.7693553307941</v>
       </c>
       <c r="AC8" t="n">
-        <v>105.6227253145413</v>
+        <v>130.0482098396195</v>
       </c>
       <c r="AD8" t="n">
-        <v>85340.60682663496</v>
+        <v>105075.8074209889</v>
       </c>
       <c r="AE8" t="n">
-        <v>116766.7832220101</v>
+        <v>143769.3553307941</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.837812179580636e-06</v>
+        <v>8.499845158593307e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.417438271604938</v>
       </c>
       <c r="AH8" t="n">
-        <v>105622.7253145413</v>
+        <v>130048.2098396195</v>
       </c>
     </row>
     <row r="9">
@@ -33545,28 +33545,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>84.4282324417879</v>
+        <v>104.1634330361418</v>
       </c>
       <c r="AB9" t="n">
-        <v>115.5184323375459</v>
+        <v>142.5210044463298</v>
       </c>
       <c r="AC9" t="n">
-        <v>104.4935152864185</v>
+        <v>128.9189998114967</v>
       </c>
       <c r="AD9" t="n">
-        <v>84428.2324417879</v>
+        <v>104163.4330361418</v>
       </c>
       <c r="AE9" t="n">
-        <v>115518.4323375459</v>
+        <v>142521.0044463298</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.848281476341888e-06</v>
+        <v>8.518239300012356e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.409722222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>104493.5152864185</v>
+        <v>128918.9998114967</v>
       </c>
     </row>
     <row r="10">
@@ -33651,28 +33651,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>83.71944686233338</v>
+        <v>103.4546474566873</v>
       </c>
       <c r="AB10" t="n">
-        <v>114.5486406383238</v>
+        <v>141.5512127471078</v>
       </c>
       <c r="AC10" t="n">
-        <v>103.6162791458587</v>
+        <v>128.0417636709368</v>
       </c>
       <c r="AD10" t="n">
-        <v>83719.44686233338</v>
+        <v>103454.6474566873</v>
       </c>
       <c r="AE10" t="n">
-        <v>114548.6406383238</v>
+        <v>141551.2127471078</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.862462111108452e-06</v>
+        <v>8.543154115902709e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.39429012345679</v>
       </c>
       <c r="AH10" t="n">
-        <v>103616.2791458587</v>
+        <v>128041.7636709368</v>
       </c>
     </row>
     <row r="11">
@@ -33757,28 +33757,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>83.88650395326101</v>
+        <v>103.6217045476149</v>
       </c>
       <c r="AB11" t="n">
-        <v>114.7772155201696</v>
+        <v>141.7797876289535</v>
       </c>
       <c r="AC11" t="n">
-        <v>103.823039161788</v>
+        <v>128.2485236868662</v>
       </c>
       <c r="AD11" t="n">
-        <v>83886.50395326101</v>
+        <v>103621.7045476149</v>
       </c>
       <c r="AE11" t="n">
-        <v>114777.2155201696</v>
+        <v>141779.7876289535</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.85985863519428e-06</v>
+        <v>8.538579911422841e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.398148148148149</v>
       </c>
       <c r="AH11" t="n">
-        <v>103823.039161788</v>
+        <v>128248.5236868662</v>
       </c>
     </row>
   </sheetData>
@@ -34054,28 +34054,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.9918049742898</v>
+        <v>210.7656148000871</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.2727282437216</v>
+        <v>288.3788124920281</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.7688047061573</v>
+        <v>260.8563433700792</v>
       </c>
       <c r="AD2" t="n">
-        <v>179991.8049742898</v>
+        <v>210765.6148000871</v>
       </c>
       <c r="AE2" t="n">
-        <v>246272.7282437216</v>
+        <v>288378.8124920281</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.882709038437152e-06</v>
+        <v>4.929111199726694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.145061728395062</v>
       </c>
       <c r="AH2" t="n">
-        <v>222768.8047061572</v>
+        <v>260856.3433700792</v>
       </c>
     </row>
     <row r="3">
@@ -34160,28 +34160,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.4841496858203</v>
+        <v>158.2578700030666</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.4294378038108</v>
+        <v>216.535399582569</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.7821370731173</v>
+        <v>195.8695649558127</v>
       </c>
       <c r="AD3" t="n">
-        <v>127484.1496858203</v>
+        <v>158257.8700030666</v>
       </c>
       <c r="AE3" t="n">
-        <v>174429.4378038108</v>
+        <v>216535.399582569</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.674099543091706e-06</v>
+        <v>6.28230076823235e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.60570987654321</v>
       </c>
       <c r="AH3" t="n">
-        <v>157782.1370731173</v>
+        <v>195869.5649558127</v>
       </c>
     </row>
     <row r="4">
@@ -34266,28 +34266,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.4751088513997</v>
+        <v>135.9910119047816</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.9981383326747</v>
+        <v>186.0689019880618</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.9190177620275</v>
+        <v>168.3107471317177</v>
       </c>
       <c r="AD4" t="n">
-        <v>115475.1088513997</v>
+        <v>135991.0119047816</v>
       </c>
       <c r="AE4" t="n">
-        <v>157998.1383326747</v>
+        <v>186068.9019880618</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.103423287118186e-06</v>
+        <v>7.01639652565114e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.01929012345679</v>
       </c>
       <c r="AH4" t="n">
-        <v>142919.0177620275</v>
+        <v>168310.7471317177</v>
       </c>
     </row>
     <row r="5">
@@ -34372,28 +34372,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>101.6717826066728</v>
+        <v>132.3601620693475</v>
       </c>
       <c r="AB5" t="n">
-        <v>139.1118184048732</v>
+        <v>181.1010130614337</v>
       </c>
       <c r="AC5" t="n">
-        <v>125.8351817010129</v>
+        <v>163.8169865517694</v>
       </c>
       <c r="AD5" t="n">
-        <v>101671.7826066728</v>
+        <v>132360.1620693475</v>
       </c>
       <c r="AE5" t="n">
-        <v>139111.8184048732</v>
+        <v>181101.0130614337</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.258060970376263e-06</v>
+        <v>7.280809730828592e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.837962962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>125835.1817010129</v>
+        <v>163816.9865517694</v>
       </c>
     </row>
     <row r="6">
@@ -34478,28 +34478,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>99.78159565797307</v>
+        <v>130.4699751206477</v>
       </c>
       <c r="AB6" t="n">
-        <v>136.5255812325006</v>
+        <v>178.5147758890611</v>
       </c>
       <c r="AC6" t="n">
-        <v>123.495771374564</v>
+        <v>161.4775762253206</v>
       </c>
       <c r="AD6" t="n">
-        <v>99781.59565797307</v>
+        <v>130469.9751206477</v>
       </c>
       <c r="AE6" t="n">
-        <v>136525.5812325006</v>
+        <v>178514.7758890611</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.334552444352383e-06</v>
+        <v>7.411601626934661e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.749228395061729</v>
       </c>
       <c r="AH6" t="n">
-        <v>123495.771374564</v>
+        <v>161477.5762253206</v>
       </c>
     </row>
     <row r="7">
@@ -34584,28 +34584,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>96.70640934058343</v>
+        <v>117.3075637399859</v>
       </c>
       <c r="AB7" t="n">
-        <v>132.3179756454048</v>
+        <v>160.5053839534412</v>
       </c>
       <c r="AC7" t="n">
-        <v>119.6897337592878</v>
+        <v>145.1869753796902</v>
       </c>
       <c r="AD7" t="n">
-        <v>96706.40934058343</v>
+        <v>117307.5637399859</v>
       </c>
       <c r="AE7" t="n">
-        <v>132317.9756454048</v>
+        <v>160505.3839534412</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.471094796362795e-06</v>
+        <v>7.645073832265667e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.606481481481482</v>
       </c>
       <c r="AH7" t="n">
-        <v>119689.7337592878</v>
+        <v>145186.9753796902</v>
       </c>
     </row>
     <row r="8">
@@ -34690,28 +34690,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>95.8676891226678</v>
+        <v>116.4688435220703</v>
       </c>
       <c r="AB8" t="n">
-        <v>131.1704016415287</v>
+        <v>159.3578099495651</v>
       </c>
       <c r="AC8" t="n">
-        <v>118.651682607711</v>
+        <v>144.1489242281134</v>
       </c>
       <c r="AD8" t="n">
-        <v>95867.6891226678</v>
+        <v>116468.8435220703</v>
       </c>
       <c r="AE8" t="n">
-        <v>131170.4016415286</v>
+        <v>159357.809949565</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.495061769018257e-06</v>
+        <v>7.68605468456966e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.583333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>118651.682607711</v>
+        <v>144148.9242281134</v>
       </c>
     </row>
     <row r="9">
@@ -34796,28 +34796,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>94.96732275161843</v>
+        <v>115.5684771510209</v>
       </c>
       <c r="AB9" t="n">
-        <v>129.9384806512986</v>
+        <v>158.125888959335</v>
       </c>
       <c r="AC9" t="n">
-        <v>117.5373344277761</v>
+        <v>143.0345760481785</v>
       </c>
       <c r="AD9" t="n">
-        <v>94967.32275161843</v>
+        <v>115568.4771510209</v>
       </c>
       <c r="AE9" t="n">
-        <v>129938.4806512986</v>
+        <v>158125.888959335</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.517961170508666e-06</v>
+        <v>7.725210109154104e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.556327160493828</v>
       </c>
       <c r="AH9" t="n">
-        <v>117537.3344277761</v>
+        <v>143034.5760481785</v>
       </c>
     </row>
     <row r="10">
@@ -34902,28 +34902,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>93.4971957515654</v>
+        <v>114.0983501509679</v>
       </c>
       <c r="AB10" t="n">
-        <v>127.9269880324013</v>
+        <v>156.1143963404376</v>
       </c>
       <c r="AC10" t="n">
-        <v>115.7178158412781</v>
+        <v>141.2150574616805</v>
       </c>
       <c r="AD10" t="n">
-        <v>93497.19575156541</v>
+        <v>114098.3501509679</v>
       </c>
       <c r="AE10" t="n">
-        <v>127926.9880324012</v>
+        <v>156114.3963404376</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.565841737261339e-06</v>
+        <v>7.807080542376117e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.510030864197531</v>
       </c>
       <c r="AH10" t="n">
-        <v>115717.8158412781</v>
+        <v>141215.0574616805</v>
       </c>
     </row>
     <row r="11">
@@ -35008,28 +35008,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>92.46801205852931</v>
+        <v>112.8985742573396</v>
       </c>
       <c r="AB11" t="n">
-        <v>126.5188134992099</v>
+        <v>154.4728100323994</v>
       </c>
       <c r="AC11" t="n">
-        <v>114.4440355091487</v>
+        <v>139.7301418469</v>
       </c>
       <c r="AD11" t="n">
-        <v>92468.0120585293</v>
+        <v>112898.5742573396</v>
       </c>
       <c r="AE11" t="n">
-        <v>126518.8134992099</v>
+        <v>154472.8100323994</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.59904320049452e-06</v>
+        <v>7.863851344454258e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.479166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>114444.0355091487</v>
+        <v>139730.1418469</v>
       </c>
     </row>
     <row r="12">
@@ -35114,28 +35114,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>91.78454323013798</v>
+        <v>112.2151054289482</v>
       </c>
       <c r="AB12" t="n">
-        <v>125.5836612956887</v>
+        <v>153.5376578288783</v>
       </c>
       <c r="AC12" t="n">
-        <v>113.5981329194369</v>
+        <v>138.8842392571883</v>
       </c>
       <c r="AD12" t="n">
-        <v>91784.54323013799</v>
+        <v>112215.1054289482</v>
       </c>
       <c r="AE12" t="n">
-        <v>125583.6612956887</v>
+        <v>153537.6578288783</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.58895465298476e-06</v>
+        <v>7.846601052504469e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>5</v>
+        <v>4.486882716049383</v>
       </c>
       <c r="AH12" t="n">
-        <v>113598.1329194369</v>
+        <v>138884.2392571883</v>
       </c>
     </row>
     <row r="13">
@@ -35220,28 +35220,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>90.63428736683124</v>
+        <v>111.0648495656415</v>
       </c>
       <c r="AB13" t="n">
-        <v>124.009830477806</v>
+        <v>151.9638270109955</v>
       </c>
       <c r="AC13" t="n">
-        <v>112.174506305927</v>
+        <v>137.4606126436783</v>
       </c>
       <c r="AD13" t="n">
-        <v>90634.28736683124</v>
+        <v>111064.8495656415</v>
       </c>
       <c r="AE13" t="n">
-        <v>124009.830477806</v>
+        <v>151963.8270109955</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.620981787936381e-06</v>
+        <v>7.9013638840911e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>5</v>
+        <v>4.456018518518519</v>
       </c>
       <c r="AH13" t="n">
-        <v>112174.506305927</v>
+        <v>137460.6126436783</v>
       </c>
     </row>
     <row r="14">
@@ -35326,28 +35326,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>90.22460790525606</v>
+        <v>110.6551701040663</v>
       </c>
       <c r="AB14" t="n">
-        <v>123.4492889646969</v>
+        <v>151.4032854978864</v>
       </c>
       <c r="AC14" t="n">
-        <v>111.6674620881039</v>
+        <v>136.9535684258552</v>
       </c>
       <c r="AD14" t="n">
-        <v>90224.60790525607</v>
+        <v>110655.1701040663</v>
       </c>
       <c r="AE14" t="n">
-        <v>123449.2889646969</v>
+        <v>151403.2854978864</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.61799258867423e-06</v>
+        <v>7.896252686476349e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>4.459876543209877</v>
       </c>
       <c r="AH14" t="n">
-        <v>111667.4620881039</v>
+        <v>136953.5684258552</v>
       </c>
     </row>
     <row r="15">
@@ -35432,28 +35432,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>89.9203348899084</v>
+        <v>110.3508970887187</v>
       </c>
       <c r="AB15" t="n">
-        <v>123.0329692015203</v>
+        <v>150.9869657347099</v>
       </c>
       <c r="AC15" t="n">
-        <v>111.2908752988163</v>
+        <v>136.5769816365677</v>
       </c>
       <c r="AD15" t="n">
-        <v>89920.33488990841</v>
+        <v>110350.8970887187</v>
       </c>
       <c r="AE15" t="n">
-        <v>123032.9692015203</v>
+        <v>150986.9657347099</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.645215653383107e-06</v>
+        <v>7.942801093324985e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>5</v>
+        <v>4.43287037037037</v>
       </c>
       <c r="AH15" t="n">
-        <v>111290.8752988163</v>
+        <v>136576.9816365677</v>
       </c>
     </row>
   </sheetData>
@@ -35729,28 +35729,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.98768547688056</v>
+        <v>81.31613002255037</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.9730653886857</v>
+        <v>111.2603165112784</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.53142546389208</v>
+        <v>100.6417880583055</v>
       </c>
       <c r="AD2" t="n">
-        <v>56987.68547688056</v>
+        <v>81316.13002255037</v>
       </c>
       <c r="AE2" t="n">
-        <v>77973.0653886857</v>
+        <v>111260.3165112784</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.620195557592379e-06</v>
+        <v>1.204666768838561e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.706790123456789</v>
       </c>
       <c r="AH2" t="n">
-        <v>70531.42546389208</v>
+        <v>100641.7880583055</v>
       </c>
     </row>
   </sheetData>
@@ -36026,28 +36026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.9460874207661</v>
+        <v>129.9102271454117</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.4871343529897</v>
+        <v>177.7489040150057</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.1746780218005</v>
+        <v>160.7847980880169</v>
       </c>
       <c r="AD2" t="n">
-        <v>101946.0874207661</v>
+        <v>129910.2271454117</v>
       </c>
       <c r="AE2" t="n">
-        <v>139487.1343529897</v>
+        <v>177748.9040150057</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.219619678105366e-06</v>
+        <v>7.774364580706508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.374228395061729</v>
       </c>
       <c r="AH2" t="n">
-        <v>126174.6780218005</v>
+        <v>160784.7980880169</v>
       </c>
     </row>
     <row r="3">
@@ -36132,28 +36132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.61652354044085</v>
+        <v>109.665914611107</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.6713281748827</v>
+        <v>150.0497424895479</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.013573345594</v>
+        <v>135.7292056625226</v>
       </c>
       <c r="AD3" t="n">
-        <v>81616.52354044084</v>
+        <v>109665.914611107</v>
       </c>
       <c r="AE3" t="n">
-        <v>111671.3281748827</v>
+        <v>150049.7424895479</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.870343032619323e-06</v>
+        <v>8.973278460415054e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.656635802469136</v>
       </c>
       <c r="AH3" t="n">
-        <v>101013.573345594</v>
+        <v>135729.2056625226</v>
       </c>
     </row>
     <row r="4">
@@ -36238,28 +36238,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.66310655521346</v>
+        <v>96.33434315935142</v>
       </c>
       <c r="AB4" t="n">
-        <v>106.2620886432493</v>
+        <v>131.808898281842</v>
       </c>
       <c r="AC4" t="n">
-        <v>96.12058404294258</v>
+        <v>119.2292420248087</v>
       </c>
       <c r="AD4" t="n">
-        <v>77663.10655521345</v>
+        <v>96334.34315935143</v>
       </c>
       <c r="AE4" t="n">
-        <v>106262.0886432493</v>
+        <v>131808.898281842</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.115429821395968e-06</v>
+        <v>9.424834333981315e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.43287037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>96120.58404294259</v>
+        <v>119229.2420248087</v>
       </c>
     </row>
     <row r="5">
@@ -36344,28 +36344,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>75.77202522817694</v>
+        <v>94.44326183231492</v>
       </c>
       <c r="AB5" t="n">
-        <v>103.6746277429792</v>
+        <v>129.2214373815719</v>
       </c>
       <c r="AC5" t="n">
-        <v>93.78006677946928</v>
+        <v>116.8887247613354</v>
       </c>
       <c r="AD5" t="n">
-        <v>75772.02522817695</v>
+        <v>94443.26183231492</v>
       </c>
       <c r="AE5" t="n">
-        <v>103674.6277429792</v>
+        <v>129221.4373815719</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.191089859092188e-06</v>
+        <v>9.564232849040026e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.367283950617284</v>
       </c>
       <c r="AH5" t="n">
-        <v>93780.06677946929</v>
+        <v>116888.7247613354</v>
       </c>
     </row>
     <row r="6">
@@ -36450,28 +36450,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>74.66307299492128</v>
+        <v>93.33430959905924</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.1573103739198</v>
+        <v>127.7041200125126</v>
       </c>
       <c r="AC6" t="n">
-        <v>92.40756005054418</v>
+        <v>115.5162180324103</v>
       </c>
       <c r="AD6" t="n">
-        <v>74663.07299492128</v>
+        <v>93334.30959905924</v>
       </c>
       <c r="AE6" t="n">
-        <v>102157.3103739198</v>
+        <v>127704.1200125126</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.244116552178429e-06</v>
+        <v>9.661930953611092e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.324845679012346</v>
       </c>
       <c r="AH6" t="n">
-        <v>92407.56005054418</v>
+        <v>115516.2180324103</v>
       </c>
     </row>
     <row r="7">
@@ -36556,28 +36556,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>74.93487450035728</v>
+        <v>93.60611110449524</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.5292011846933</v>
+        <v>128.076010823286</v>
       </c>
       <c r="AC7" t="n">
-        <v>92.74395812428959</v>
+        <v>115.8526161061557</v>
       </c>
       <c r="AD7" t="n">
-        <v>74934.87450035728</v>
+        <v>93606.11110449524</v>
       </c>
       <c r="AE7" t="n">
-        <v>102529.2011846933</v>
+        <v>128076.010823286</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.236709275760617e-06</v>
+        <v>9.648283546542406e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.332561728395062</v>
       </c>
       <c r="AH7" t="n">
-        <v>92743.95812428959</v>
+        <v>115852.6161061557</v>
       </c>
     </row>
   </sheetData>
@@ -36853,28 +36853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.9486182743753</v>
+        <v>148.089910997082</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.750747165608</v>
+        <v>202.6231494918956</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.2180442782756</v>
+        <v>183.2850804878231</v>
       </c>
       <c r="AD2" t="n">
-        <v>118948.6182743753</v>
+        <v>148089.910997082</v>
       </c>
       <c r="AE2" t="n">
-        <v>162750.747165608</v>
+        <v>202623.1494918956</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.693046888754414e-06</v>
+        <v>6.597358754547738e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.914351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>147218.0442782756</v>
+        <v>183285.0804878231</v>
       </c>
     </row>
     <row r="3">
@@ -36959,28 +36959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>92.5479146391268</v>
+        <v>121.6038665072619</v>
       </c>
       <c r="AB3" t="n">
-        <v>126.6281397350364</v>
+        <v>166.3837749391263</v>
       </c>
       <c r="AC3" t="n">
-        <v>114.5429278024683</v>
+        <v>150.504340980077</v>
       </c>
       <c r="AD3" t="n">
-        <v>92547.9146391268</v>
+        <v>121603.8665072619</v>
       </c>
       <c r="AE3" t="n">
-        <v>126628.1397350364</v>
+        <v>166383.7749391263</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.427433894970521e-06</v>
+        <v>7.909287546851825e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.930555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>114542.9278024683</v>
+        <v>150504.340980077</v>
       </c>
     </row>
     <row r="4">
@@ -37065,28 +37065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>87.82866074110035</v>
+        <v>116.8846126092354</v>
       </c>
       <c r="AB4" t="n">
-        <v>120.1710483529718</v>
+        <v>159.9266835570618</v>
       </c>
       <c r="AC4" t="n">
-        <v>108.7020921593212</v>
+        <v>144.6635053369299</v>
       </c>
       <c r="AD4" t="n">
-        <v>87828.66074110035</v>
+        <v>116884.6126092355</v>
       </c>
       <c r="AE4" t="n">
-        <v>120171.0483529718</v>
+        <v>159926.6835570617</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.684907998344476e-06</v>
+        <v>8.369246242512038e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.660493827160494</v>
       </c>
       <c r="AH4" t="n">
-        <v>108702.0921593212</v>
+        <v>144663.5053369299</v>
       </c>
     </row>
     <row r="5">
@@ -37171,28 +37171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>85.37651772242785</v>
+        <v>104.889387058804</v>
       </c>
       <c r="AB5" t="n">
-        <v>116.8159180939108</v>
+        <v>143.5142867669668</v>
       </c>
       <c r="AC5" t="n">
-        <v>105.667170823229</v>
+        <v>129.8174846615328</v>
       </c>
       <c r="AD5" t="n">
-        <v>85376.51772242785</v>
+        <v>104889.387058804</v>
       </c>
       <c r="AE5" t="n">
-        <v>116815.9180939108</v>
+        <v>143514.2867669668</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.804560725214676e-06</v>
+        <v>8.582997107015375e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.544753086419753</v>
       </c>
       <c r="AH5" t="n">
-        <v>105667.170823229</v>
+        <v>129817.4846615328</v>
       </c>
     </row>
     <row r="6">
@@ -37277,28 +37277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>83.19989666126409</v>
+        <v>102.542173797048</v>
       </c>
       <c r="AB6" t="n">
-        <v>113.837769132284</v>
+        <v>140.3027260304931</v>
       </c>
       <c r="AC6" t="n">
-        <v>102.9732522186406</v>
+        <v>126.9124307742934</v>
       </c>
       <c r="AD6" t="n">
-        <v>83199.89666126409</v>
+        <v>102542.173797048</v>
       </c>
       <c r="AE6" t="n">
-        <v>113837.769132284</v>
+        <v>140302.7260304932</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.908252208481567e-06</v>
+        <v>8.768234374645517e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.448302469135802</v>
       </c>
       <c r="AH6" t="n">
-        <v>102973.2522186406</v>
+        <v>126912.4307742934</v>
       </c>
     </row>
     <row r="7">
@@ -37383,28 +37383,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>81.72540105080202</v>
+        <v>101.0676781865859</v>
       </c>
       <c r="AB7" t="n">
-        <v>111.8202991878955</v>
+        <v>138.2852560861046</v>
       </c>
       <c r="AC7" t="n">
-        <v>101.148326774207</v>
+        <v>125.0875053298598</v>
       </c>
       <c r="AD7" t="n">
-        <v>81725.40105080201</v>
+        <v>101067.6781865859</v>
       </c>
       <c r="AE7" t="n">
-        <v>111820.2991878955</v>
+        <v>138285.2560861046</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.949117520118409e-06</v>
+        <v>8.841237271604559e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.41358024691358</v>
       </c>
       <c r="AH7" t="n">
-        <v>101148.326774207</v>
+        <v>125087.5053298598</v>
       </c>
     </row>
     <row r="8">
@@ -37489,28 +37489,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>80.24141956698752</v>
+        <v>99.58369670277143</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.789850253099</v>
+        <v>136.2548071513081</v>
       </c>
       <c r="AC8" t="n">
-        <v>99.31166103599389</v>
+        <v>123.2508395916467</v>
       </c>
       <c r="AD8" t="n">
-        <v>80241.41956698752</v>
+        <v>99583.69670277143</v>
       </c>
       <c r="AE8" t="n">
-        <v>109789.850253099</v>
+        <v>136254.8071513081</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.007019478296373e-06</v>
+        <v>8.94467489430414e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.359567901234568</v>
       </c>
       <c r="AH8" t="n">
-        <v>99311.66103599389</v>
+        <v>123250.8395916467</v>
       </c>
     </row>
     <row r="9">
@@ -37595,28 +37595,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>80.42623509699291</v>
+        <v>99.76851223277681</v>
       </c>
       <c r="AB9" t="n">
-        <v>110.042723014738</v>
+        <v>136.5076799129471</v>
       </c>
       <c r="AC9" t="n">
-        <v>99.54039997617127</v>
+        <v>123.479578531824</v>
       </c>
       <c r="AD9" t="n">
-        <v>80426.23509699291</v>
+        <v>99768.51223277682</v>
       </c>
       <c r="AE9" t="n">
-        <v>110042.723014738</v>
+        <v>136507.6799129471</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.00220846515353e-06</v>
+        <v>8.936080370423921e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.367283950617284</v>
       </c>
       <c r="AH9" t="n">
-        <v>99540.39997617128</v>
+        <v>123479.5785318241</v>
       </c>
     </row>
   </sheetData>
